--- a/etc/national-population-projections-2022base-2073.xlsx
+++ b/etc/national-population-projections-2022base-2073.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD7A65-A1F3-496D-834E-0C0C60C120E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E011A-E061-4238-B53A-462412ACF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10234" r:id="rId1"/>
     <sheet name="Table 1" sheetId="10235" r:id="rId2"/>
+    <sheet name="65+" sheetId="10239" r:id="rId3"/>
+    <sheet name="&lt;15" sheetId="10240" r:id="rId4"/>
+    <sheet name="40-64" sheetId="10238" r:id="rId5"/>
+    <sheet name="15-39" sheetId="10237" r:id="rId6"/>
+    <sheet name="0-14" sheetId="10236" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="agegroup5yr">#REF!</definedName>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>List of tables</t>
   </si>
@@ -656,7 +661,7 @@
     <numFmt numFmtId="168" formatCode="#,#00\ \ \ \ "/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1223,17 +1228,14 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="118" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1247,6 +1249,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="118" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="118" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,14 +1261,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="118" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="96" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -1469,9 +1474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1509,9 +1514,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,26 +1549,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,26 +1584,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1794,143 +1765,143 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="44"/>
       <c r="B9" s="42"/>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="45" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1946,17 +1917,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="50" t="s">
         <v>84</v>
       </c>
@@ -1992,14 +1963,14 @@
   <dimension ref="A1:L336"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B379" sqref="B379"/>
       <selection pane="topRight" activeCell="B379" sqref="B379"/>
       <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46:L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="3.3984375" style="16" customWidth="1"/>
     <col min="2" max="2" width="8.3984375" style="16" customWidth="1"/>
@@ -2009,7 +1980,7 @@
     <col min="13" max="16384" width="9.3984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +1996,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="15"/>
     </row>
-    <row r="2" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="9.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="41"/>
@@ -2039,7 +2010,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
@@ -2055,7 +2026,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>93</v>
       </c>
@@ -2071,7 +2042,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:12" s="17" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="17" customFormat="1" ht="6" customHeight="1">
       <c r="A5" s="23"/>
       <c r="B5" s="2"/>
       <c r="C5" s="15"/>
@@ -2085,11 +2056,11 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="12" customHeight="1">
+      <c r="A6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="67" t="s">
         <v>28</v>
       </c>
@@ -2105,9 +2076,9 @@
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="32">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="30" t="s">
         <v>12</v>
       </c>
@@ -2139,27 +2110,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="10.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="10.5">
+      <c r="A8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-    </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="53">
         <v>5097</v>
       </c>
@@ -2191,11 +2162,11 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="60">
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A10" s="70">
         <v>2023</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="40">
         <v>5104</v>
       </c>
@@ -2227,11 +2198,11 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A11" s="60">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A11" s="70">
         <v>2028</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="40">
         <v>5170</v>
       </c>
@@ -2263,11 +2234,11 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A12" s="70">
         <v>2033</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="40">
         <v>5281</v>
       </c>
@@ -2299,11 +2270,11 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A13" s="60">
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A13" s="70">
         <v>2038</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="40">
         <v>5386</v>
       </c>
@@ -2335,11 +2306,11 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A14" s="60">
+    <row r="14" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A14" s="70">
         <v>2043</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="40">
         <v>5484</v>
       </c>
@@ -2371,11 +2342,11 @@
         <v>6493</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A15" s="70">
         <v>2048</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="40">
         <v>5553</v>
       </c>
@@ -2407,11 +2378,11 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A16" s="60">
+    <row r="16" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A16" s="70">
         <v>2053</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="40">
         <v>5588</v>
       </c>
@@ -2443,11 +2414,11 @@
         <v>7109</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A17" s="60">
+    <row r="17" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A17" s="70">
         <v>2058</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="40">
         <v>5638</v>
       </c>
@@ -2479,11 +2450,11 @@
         <v>7398</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A18" s="60">
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A18" s="70">
         <v>2063</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="40">
         <v>5652</v>
       </c>
@@ -2515,11 +2486,11 @@
         <v>7685</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A19" s="60">
+    <row r="19" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A19" s="70">
         <v>2068</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="40">
         <v>5660</v>
       </c>
@@ -2551,11 +2522,11 @@
         <v>7972</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A20" s="60">
+    <row r="20" spans="1:12" s="18" customFormat="1" ht="10">
+      <c r="A20" s="70">
         <v>2073</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="40">
         <v>5622</v>
       </c>
@@ -2587,27 +2558,27 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:12" s="19" customFormat="1">
+      <c r="A21" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-    </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A22" s="60">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A22" s="70">
         <v>2023</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="38">
         <v>-14</v>
       </c>
@@ -2639,11 +2610,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A23" s="60">
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A23" s="70">
         <v>2028</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="38">
         <v>-5</v>
       </c>
@@ -2675,11 +2646,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A24" s="60">
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A24" s="70">
         <v>2033</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="38">
         <v>-8</v>
       </c>
@@ -2711,11 +2682,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A25" s="60">
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A25" s="70">
         <v>2038</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="38">
         <v>-13</v>
       </c>
@@ -2747,11 +2718,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A26" s="60">
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A26" s="70">
         <v>2043</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="38">
         <v>-17</v>
       </c>
@@ -2783,11 +2754,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A27" s="70">
         <v>2048</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="38">
         <v>-20</v>
       </c>
@@ -2819,11 +2790,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A28" s="60">
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A28" s="70">
         <v>2053</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="38">
         <v>-23</v>
       </c>
@@ -2855,11 +2826,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A29" s="60">
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A29" s="70">
         <v>2058</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="38">
         <v>-29</v>
       </c>
@@ -2891,11 +2862,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A30" s="60">
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A30" s="70">
         <v>2063</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="38">
         <v>-28</v>
       </c>
@@ -2927,11 +2898,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A31" s="60">
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A31" s="70">
         <v>2068</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="38">
         <v>-34</v>
       </c>
@@ -2963,11 +2934,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A32" s="60">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A32" s="70">
         <v>2073</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="38">
         <v>-36</v>
       </c>
@@ -2999,27 +2970,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:12" s="19" customFormat="1">
+      <c r="A33" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-    </row>
-    <row r="34" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A34" s="60">
+      <c r="B33" s="71"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+    </row>
+    <row r="34" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A34" s="70">
         <v>2023</v>
       </c>
-      <c r="B34" s="60"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="27">
         <v>-0.3</v>
       </c>
@@ -3051,11 +3022,11 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A35" s="60">
+    <row r="35" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A35" s="70">
         <v>2028</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="27">
         <v>-0.1</v>
       </c>
@@ -3087,11 +3058,11 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A36" s="60">
+    <row r="36" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A36" s="70">
         <v>2033</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="70"/>
       <c r="C36" s="27">
         <v>-0.1</v>
       </c>
@@ -3123,11 +3094,11 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A37" s="60">
+    <row r="37" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A37" s="70">
         <v>2038</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="27">
         <v>-0.2</v>
       </c>
@@ -3159,11 +3130,11 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A38" s="60">
+    <row r="38" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A38" s="70">
         <v>2043</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="27">
         <v>-0.3</v>
       </c>
@@ -3195,11 +3166,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A39" s="60">
+    <row r="39" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A39" s="70">
         <v>2048</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="27">
         <v>-0.3</v>
       </c>
@@ -3231,11 +3202,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A40" s="60">
+    <row r="40" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A40" s="70">
         <v>2053</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="27">
         <v>-0.4</v>
       </c>
@@ -3267,11 +3238,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A41" s="60">
+    <row r="41" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A41" s="70">
         <v>2058</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="27">
         <v>-0.5</v>
       </c>
@@ -3303,11 +3274,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A42" s="60">
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A42" s="70">
         <v>2063</v>
       </c>
-      <c r="B42" s="60"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="27">
         <v>-0.5</v>
       </c>
@@ -3339,11 +3310,11 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A43" s="60">
+    <row r="43" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A43" s="70">
         <v>2068</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="27">
         <v>-0.5</v>
       </c>
@@ -3375,11 +3346,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A44" s="60">
+    <row r="44" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A44" s="70">
         <v>2073</v>
       </c>
-      <c r="B44" s="60"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="27">
         <v>-0.6</v>
       </c>
@@ -3411,27 +3382,27 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A45" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-    </row>
-    <row r="46" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+    </row>
+    <row r="46" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A46" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="60"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="53">
         <v>960</v>
       </c>
@@ -3463,11 +3434,11 @@
         <v>965</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A47" s="60">
+    <row r="47" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A47" s="70">
         <v>2023</v>
       </c>
-      <c r="B47" s="60"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="40">
         <v>946</v>
       </c>
@@ -3499,11 +3470,11 @@
         <v>957</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A48" s="60">
+    <row r="48" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A48" s="70">
         <v>2028</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="40">
         <v>878</v>
       </c>
@@ -3535,11 +3506,11 @@
         <v>950</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A49" s="60">
+    <row r="49" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A49" s="70">
         <v>2033</v>
       </c>
-      <c r="B49" s="60"/>
+      <c r="B49" s="70"/>
       <c r="C49" s="40">
         <v>820</v>
       </c>
@@ -3571,11 +3542,11 @@
         <v>969</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A50" s="60">
+    <row r="50" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A50" s="70">
         <v>2038</v>
       </c>
-      <c r="B50" s="60"/>
+      <c r="B50" s="70"/>
       <c r="C50" s="40">
         <v>766</v>
       </c>
@@ -3607,11 +3578,11 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A51" s="60">
+    <row r="51" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A51" s="70">
         <v>2043</v>
       </c>
-      <c r="B51" s="60"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="40">
         <v>734</v>
       </c>
@@ -3643,11 +3614,11 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A52" s="60">
+    <row r="52" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A52" s="70">
         <v>2048</v>
       </c>
-      <c r="B52" s="60"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="40">
         <v>707</v>
       </c>
@@ -3679,11 +3650,11 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A53" s="60">
+    <row r="53" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A53" s="70">
         <v>2053</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="40">
         <v>681</v>
       </c>
@@ -3715,11 +3686,11 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A54" s="60">
+    <row r="54" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A54" s="70">
         <v>2058</v>
       </c>
-      <c r="B54" s="60"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="40">
         <v>649</v>
       </c>
@@ -3751,11 +3722,11 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A55" s="60">
+    <row r="55" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A55" s="70">
         <v>2063</v>
       </c>
-      <c r="B55" s="60"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="40">
         <v>615</v>
       </c>
@@ -3787,11 +3758,11 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A56" s="60">
+    <row r="56" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A56" s="70">
         <v>2068</v>
       </c>
-      <c r="B56" s="60"/>
+      <c r="B56" s="70"/>
       <c r="C56" s="40">
         <v>571</v>
       </c>
@@ -3823,11 +3794,11 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A57" s="60">
+    <row r="57" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A57" s="70">
         <v>2073</v>
       </c>
-      <c r="B57" s="60"/>
+      <c r="B57" s="70"/>
       <c r="C57" s="40">
         <v>531</v>
       </c>
@@ -3859,27 +3830,27 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="62" t="s">
+    <row r="58" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A58" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-    </row>
-    <row r="59" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A59" s="60" t="s">
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+    </row>
+    <row r="59" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A59" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="60"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="53">
         <v>1716</v>
       </c>
@@ -3911,11 +3882,11 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A60" s="60">
+    <row r="60" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A60" s="70">
         <v>2023</v>
       </c>
-      <c r="B60" s="60"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="40">
         <v>1707</v>
       </c>
@@ -3947,11 +3918,11 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A61" s="60">
+    <row r="61" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A61" s="70">
         <v>2028</v>
       </c>
-      <c r="B61" s="60"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="40">
         <v>1682</v>
       </c>
@@ -3983,11 +3954,11 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A62" s="60">
+    <row r="62" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A62" s="70">
         <v>2033</v>
       </c>
-      <c r="B62" s="60"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="40">
         <v>1644</v>
       </c>
@@ -4019,11 +3990,11 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A63" s="60">
+    <row r="63" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A63" s="70">
         <v>2038</v>
       </c>
-      <c r="B63" s="60"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="40">
         <v>1638</v>
       </c>
@@ -4055,11 +4026,11 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A64" s="60">
+    <row r="64" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A64" s="70">
         <v>2043</v>
       </c>
-      <c r="B64" s="60"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="40">
         <v>1650</v>
       </c>
@@ -4091,11 +4062,11 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A65" s="60">
+    <row r="65" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A65" s="70">
         <v>2048</v>
       </c>
-      <c r="B65" s="60"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="40">
         <v>1628</v>
       </c>
@@ -4127,11 +4098,11 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A66" s="60">
+    <row r="66" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A66" s="70">
         <v>2053</v>
       </c>
-      <c r="B66" s="60"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="40">
         <v>1575</v>
       </c>
@@ -4163,11 +4134,11 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A67" s="60">
+    <row r="67" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A67" s="70">
         <v>2058</v>
       </c>
-      <c r="B67" s="60"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="40">
         <v>1537</v>
       </c>
@@ -4199,11 +4170,11 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A68" s="60">
+    <row r="68" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A68" s="70">
         <v>2063</v>
       </c>
-      <c r="B68" s="60"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="40">
         <v>1478</v>
       </c>
@@ -4235,11 +4206,11 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A69" s="60">
+    <row r="69" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A69" s="70">
         <v>2068</v>
       </c>
-      <c r="B69" s="60"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="40">
         <v>1433</v>
       </c>
@@ -4271,11 +4242,11 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A70" s="60">
+    <row r="70" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A70" s="70">
         <v>2073</v>
       </c>
-      <c r="B70" s="60"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="40">
         <v>1375</v>
       </c>
@@ -4307,27 +4278,27 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="62" t="s">
+    <row r="71" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A71" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-    </row>
-    <row r="72" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A72" s="60" t="s">
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+    </row>
+    <row r="72" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A72" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="60"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="53">
         <v>1583</v>
       </c>
@@ -4359,11 +4330,11 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A73" s="60">
+    <row r="73" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A73" s="70">
         <v>2023</v>
       </c>
-      <c r="B73" s="60"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="40">
         <v>1584</v>
       </c>
@@ -4395,11 +4366,11 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A74" s="60">
+    <row r="74" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A74" s="70">
         <v>2028</v>
       </c>
-      <c r="B74" s="60"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="40">
         <v>1589</v>
       </c>
@@ -4431,11 +4402,11 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A75" s="60">
+    <row r="75" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A75" s="70">
         <v>2033</v>
       </c>
-      <c r="B75" s="60"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="40">
         <v>1651</v>
       </c>
@@ -4467,11 +4438,11 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A76" s="60">
+    <row r="76" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A76" s="70">
         <v>2038</v>
       </c>
-      <c r="B76" s="60"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="40">
         <v>1679</v>
       </c>
@@ -4503,11 +4474,11 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A77" s="60">
+    <row r="77" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A77" s="70">
         <v>2043</v>
       </c>
-      <c r="B77" s="60"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="40">
         <v>1712</v>
       </c>
@@ -4539,11 +4510,11 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A78" s="60">
+    <row r="78" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A78" s="70">
         <v>2048</v>
       </c>
-      <c r="B78" s="60"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="40">
         <v>1756</v>
       </c>
@@ -4575,11 +4546,11 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A79" s="60">
+    <row r="79" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A79" s="70">
         <v>2053</v>
       </c>
-      <c r="B79" s="60"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="40">
         <v>1796</v>
       </c>
@@ -4611,11 +4582,11 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A80" s="60">
+    <row r="80" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A80" s="70">
         <v>2058</v>
       </c>
-      <c r="B80" s="60"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="40">
         <v>1782</v>
       </c>
@@ -4647,11 +4618,11 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A81" s="60">
+    <row r="81" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A81" s="70">
         <v>2063</v>
       </c>
-      <c r="B81" s="60"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="40">
         <v>1787</v>
       </c>
@@ -4683,11 +4654,11 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A82" s="60">
+    <row r="82" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A82" s="70">
         <v>2068</v>
       </c>
-      <c r="B82" s="60"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="40">
         <v>1804</v>
       </c>
@@ -4719,11 +4690,11 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A83" s="60">
+    <row r="83" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A83" s="70">
         <v>2073</v>
       </c>
-      <c r="B83" s="60"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="40">
         <v>1799</v>
       </c>
@@ -4755,27 +4726,27 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="62" t="s">
+    <row r="84" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A84" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-    </row>
-    <row r="85" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+    </row>
+    <row r="85" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A85" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="60"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="53">
         <v>838</v>
       </c>
@@ -4807,11 +4778,11 @@
         <v>842</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A86" s="60">
+    <row r="86" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A86" s="70">
         <v>2023</v>
       </c>
-      <c r="B86" s="60"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="40">
         <v>864</v>
       </c>
@@ -4843,11 +4814,11 @@
         <v>869</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A87" s="60">
+    <row r="87" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A87" s="70">
         <v>2028</v>
       </c>
-      <c r="B87" s="60"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="40">
         <v>1011</v>
       </c>
@@ -4879,11 +4850,11 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A88" s="60">
+    <row r="88" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A88" s="70">
         <v>2033</v>
       </c>
-      <c r="B88" s="60"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="40">
         <v>1136</v>
       </c>
@@ -4915,11 +4886,11 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A89" s="60">
+    <row r="89" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A89" s="70">
         <v>2038</v>
       </c>
-      <c r="B89" s="60"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="40">
         <v>1244</v>
       </c>
@@ -4951,11 +4922,11 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A90" s="60">
+    <row r="90" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A90" s="70">
         <v>2043</v>
       </c>
-      <c r="B90" s="60"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="40">
         <v>1296</v>
       </c>
@@ -4987,11 +4958,11 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A91" s="60">
+    <row r="91" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A91" s="70">
         <v>2048</v>
       </c>
-      <c r="B91" s="60"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="40">
         <v>1340</v>
       </c>
@@ -5023,11 +4994,11 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A92" s="60">
+    <row r="92" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A92" s="70">
         <v>2053</v>
       </c>
-      <c r="B92" s="60"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="40">
         <v>1401</v>
       </c>
@@ -5059,11 +5030,11 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A93" s="60">
+    <row r="93" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A93" s="70">
         <v>2058</v>
       </c>
-      <c r="B93" s="60"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="40">
         <v>1493</v>
       </c>
@@ -5095,11 +5066,11 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A94" s="60">
+    <row r="94" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A94" s="70">
         <v>2063</v>
       </c>
-      <c r="B94" s="60"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="40">
         <v>1556</v>
       </c>
@@ -5131,11 +5102,11 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A95" s="60">
+    <row r="95" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A95" s="70">
         <v>2068</v>
       </c>
-      <c r="B95" s="60"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="40">
         <v>1595</v>
       </c>
@@ -5167,11 +5138,11 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A96" s="60">
+    <row r="96" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A96" s="70">
         <v>2073</v>
       </c>
-      <c r="B96" s="60"/>
+      <c r="B96" s="70"/>
       <c r="C96" s="40">
         <v>1645</v>
       </c>
@@ -5203,27 +5174,27 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="62" t="s">
+    <row r="97" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A97" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-      <c r="L97" s="62"/>
-    </row>
-    <row r="98" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A98" s="60" t="s">
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
+    </row>
+    <row r="98" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A98" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="60"/>
+      <c r="B98" s="70"/>
       <c r="C98" s="53">
         <v>92</v>
       </c>
@@ -5255,11 +5226,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A99" s="60">
+    <row r="99" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A99" s="70">
         <v>2023</v>
       </c>
-      <c r="B99" s="60"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="40">
         <v>95</v>
       </c>
@@ -5291,11 +5262,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A100" s="60">
+    <row r="100" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A100" s="70">
         <v>2028</v>
       </c>
-      <c r="B100" s="60"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="40">
         <v>116</v>
       </c>
@@ -5327,11 +5298,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A101" s="60">
+    <row r="101" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A101" s="70">
         <v>2033</v>
       </c>
-      <c r="B101" s="60"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="40">
         <v>148</v>
       </c>
@@ -5363,11 +5334,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A102" s="60">
+    <row r="102" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A102" s="70">
         <v>2038</v>
       </c>
-      <c r="B102" s="60"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="40">
         <v>181</v>
       </c>
@@ -5399,11 +5370,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A103" s="60">
+    <row r="103" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A103" s="70">
         <v>2043</v>
       </c>
-      <c r="B103" s="60"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="40">
         <v>213</v>
       </c>
@@ -5435,11 +5406,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A104" s="60">
+    <row r="104" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A104" s="70">
         <v>2048</v>
       </c>
-      <c r="B104" s="60"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="40">
         <v>251</v>
       </c>
@@ -5471,11 +5442,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A105" s="60">
+    <row r="105" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A105" s="70">
         <v>2053</v>
       </c>
-      <c r="B105" s="60"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="40">
         <v>273</v>
       </c>
@@ -5507,11 +5478,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A106" s="60">
+    <row r="106" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A106" s="70">
         <v>2058</v>
       </c>
-      <c r="B106" s="60"/>
+      <c r="B106" s="70"/>
       <c r="C106" s="40">
         <v>290</v>
       </c>
@@ -5543,11 +5514,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A107" s="60">
+    <row r="107" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A107" s="70">
         <v>2063</v>
       </c>
-      <c r="B107" s="60"/>
+      <c r="B107" s="70"/>
       <c r="C107" s="40">
         <v>283</v>
       </c>
@@ -5579,11 +5550,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A108" s="60">
+    <row r="108" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A108" s="70">
         <v>2068</v>
       </c>
-      <c r="B108" s="60"/>
+      <c r="B108" s="70"/>
       <c r="C108" s="40">
         <v>291</v>
       </c>
@@ -5615,11 +5586,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A109" s="60">
+    <row r="109" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A109" s="70">
         <v>2073</v>
       </c>
-      <c r="B109" s="60"/>
+      <c r="B109" s="70"/>
       <c r="C109" s="40">
         <v>322</v>
       </c>
@@ -5651,27 +5622,27 @@
         <v>433</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="62" t="s">
+    <row r="110" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A110" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="62"/>
-    </row>
-    <row r="111" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A111" s="60" t="s">
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="66"/>
+    </row>
+    <row r="111" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A111" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="60"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="52">
         <v>19</v>
       </c>
@@ -5703,11 +5674,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A112" s="60">
+    <row r="112" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A112" s="70">
         <v>2023</v>
       </c>
-      <c r="B112" s="60"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="38">
         <v>19</v>
       </c>
@@ -5739,11 +5710,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A113" s="60">
+    <row r="113" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A113" s="70">
         <v>2028</v>
       </c>
-      <c r="B113" s="60"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="38">
         <v>17</v>
       </c>
@@ -5775,11 +5746,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A114" s="60">
+    <row r="114" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A114" s="70">
         <v>2033</v>
       </c>
-      <c r="B114" s="60"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="38">
         <v>15</v>
       </c>
@@ -5811,11 +5782,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A115" s="60">
+    <row r="115" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A115" s="70">
         <v>2038</v>
       </c>
-      <c r="B115" s="60"/>
+      <c r="B115" s="70"/>
       <c r="C115" s="38">
         <v>14</v>
       </c>
@@ -5847,11 +5818,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A116" s="60">
+    <row r="116" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A116" s="70">
         <v>2043</v>
       </c>
-      <c r="B116" s="60"/>
+      <c r="B116" s="70"/>
       <c r="C116" s="38">
         <v>13</v>
       </c>
@@ -5883,11 +5854,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A117" s="60">
+    <row r="117" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A117" s="70">
         <v>2048</v>
       </c>
-      <c r="B117" s="60"/>
+      <c r="B117" s="70"/>
       <c r="C117" s="38">
         <v>12</v>
       </c>
@@ -5919,11 +5890,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A118" s="60">
+    <row r="118" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A118" s="70">
         <v>2053</v>
       </c>
-      <c r="B118" s="60"/>
+      <c r="B118" s="70"/>
       <c r="C118" s="38">
         <v>12</v>
       </c>
@@ -5955,11 +5926,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A119" s="60">
+    <row r="119" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A119" s="70">
         <v>2058</v>
       </c>
-      <c r="B119" s="60"/>
+      <c r="B119" s="70"/>
       <c r="C119" s="38">
         <v>11</v>
       </c>
@@ -5991,11 +5962,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A120" s="60">
+    <row r="120" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A120" s="70">
         <v>2063</v>
       </c>
-      <c r="B120" s="60"/>
+      <c r="B120" s="70"/>
       <c r="C120" s="38">
         <v>11</v>
       </c>
@@ -6027,11 +5998,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A121" s="60">
+    <row r="121" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A121" s="70">
         <v>2068</v>
       </c>
-      <c r="B121" s="60"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="38">
         <v>10</v>
       </c>
@@ -6063,11 +6034,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A122" s="60">
+    <row r="122" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A122" s="70">
         <v>2073</v>
       </c>
-      <c r="B122" s="60"/>
+      <c r="B122" s="70"/>
       <c r="C122" s="38">
         <v>9</v>
       </c>
@@ -6099,27 +6070,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="62" t="s">
+    <row r="123" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A123" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="62"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="62"/>
-      <c r="L123" s="62"/>
-    </row>
-    <row r="124" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A124" s="60" t="s">
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
+    </row>
+    <row r="124" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A124" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B124" s="60"/>
+      <c r="B124" s="70"/>
       <c r="C124" s="52">
         <v>34</v>
       </c>
@@ -6151,11 +6122,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A125" s="60">
+    <row r="125" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A125" s="70">
         <v>2023</v>
       </c>
-      <c r="B125" s="60"/>
+      <c r="B125" s="70"/>
       <c r="C125" s="38">
         <v>33</v>
       </c>
@@ -6187,11 +6158,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A126" s="60">
+    <row r="126" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A126" s="70">
         <v>2028</v>
       </c>
-      <c r="B126" s="60"/>
+      <c r="B126" s="70"/>
       <c r="C126" s="38">
         <v>33</v>
       </c>
@@ -6223,11 +6194,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A127" s="60">
+    <row r="127" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A127" s="70">
         <v>2033</v>
       </c>
-      <c r="B127" s="60"/>
+      <c r="B127" s="70"/>
       <c r="C127" s="38">
         <v>31</v>
       </c>
@@ -6259,11 +6230,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A128" s="60">
+    <row r="128" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A128" s="70">
         <v>2038</v>
       </c>
-      <c r="B128" s="60"/>
+      <c r="B128" s="70"/>
       <c r="C128" s="38">
         <v>30</v>
       </c>
@@ -6295,11 +6266,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A129" s="60">
+    <row r="129" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A129" s="70">
         <v>2043</v>
       </c>
-      <c r="B129" s="60"/>
+      <c r="B129" s="70"/>
       <c r="C129" s="38">
         <v>30</v>
       </c>
@@ -6331,11 +6302,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A130" s="60">
+    <row r="130" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A130" s="70">
         <v>2048</v>
       </c>
-      <c r="B130" s="60"/>
+      <c r="B130" s="70"/>
       <c r="C130" s="38">
         <v>29</v>
       </c>
@@ -6367,11 +6338,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A131" s="60">
+    <row r="131" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A131" s="70">
         <v>2053</v>
       </c>
-      <c r="B131" s="60"/>
+      <c r="B131" s="70"/>
       <c r="C131" s="38">
         <v>28</v>
       </c>
@@ -6403,11 +6374,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A132" s="60">
+    <row r="132" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A132" s="70">
         <v>2058</v>
       </c>
-      <c r="B132" s="60"/>
+      <c r="B132" s="70"/>
       <c r="C132" s="38">
         <v>27</v>
       </c>
@@ -6439,11 +6410,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A133" s="60">
+    <row r="133" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A133" s="70">
         <v>2063</v>
       </c>
-      <c r="B133" s="60"/>
+      <c r="B133" s="70"/>
       <c r="C133" s="38">
         <v>26</v>
       </c>
@@ -6475,11 +6446,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A134" s="60">
+    <row r="134" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A134" s="70">
         <v>2068</v>
       </c>
-      <c r="B134" s="60"/>
+      <c r="B134" s="70"/>
       <c r="C134" s="38">
         <v>25</v>
       </c>
@@ -6511,11 +6482,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A135" s="60">
+    <row r="135" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A135" s="70">
         <v>2073</v>
       </c>
-      <c r="B135" s="60"/>
+      <c r="B135" s="70"/>
       <c r="C135" s="38">
         <v>24</v>
       </c>
@@ -6547,27 +6518,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="62" t="s">
+    <row r="136" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A136" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="62"/>
-      <c r="G136" s="62"/>
-      <c r="H136" s="62"/>
-      <c r="I136" s="62"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="62"/>
-    </row>
-    <row r="137" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A137" s="60" t="s">
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
+    </row>
+    <row r="137" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A137" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B137" s="60"/>
+      <c r="B137" s="70"/>
       <c r="C137" s="52">
         <v>31</v>
       </c>
@@ -6599,11 +6570,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A138" s="60">
+    <row r="138" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A138" s="70">
         <v>2023</v>
       </c>
-      <c r="B138" s="60"/>
+      <c r="B138" s="70"/>
       <c r="C138" s="38">
         <v>31</v>
       </c>
@@ -6635,11 +6606,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A139" s="60">
+    <row r="139" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A139" s="70">
         <v>2028</v>
       </c>
-      <c r="B139" s="60"/>
+      <c r="B139" s="70"/>
       <c r="C139" s="38">
         <v>30</v>
       </c>
@@ -6671,11 +6642,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A140" s="60">
+    <row r="140" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A140" s="70">
         <v>2033</v>
       </c>
-      <c r="B140" s="60"/>
+      <c r="B140" s="70"/>
       <c r="C140" s="38">
         <v>30</v>
       </c>
@@ -6707,11 +6678,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A141" s="60">
+    <row r="141" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A141" s="70">
         <v>2038</v>
       </c>
-      <c r="B141" s="60"/>
+      <c r="B141" s="70"/>
       <c r="C141" s="38">
         <v>30</v>
       </c>
@@ -6743,11 +6714,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A142" s="60">
+    <row r="142" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A142" s="70">
         <v>2043</v>
       </c>
-      <c r="B142" s="60"/>
+      <c r="B142" s="70"/>
       <c r="C142" s="38">
         <v>30</v>
       </c>
@@ -6779,11 +6750,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A143" s="60">
+    <row r="143" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A143" s="70">
         <v>2048</v>
       </c>
-      <c r="B143" s="60"/>
+      <c r="B143" s="70"/>
       <c r="C143" s="38">
         <v>30</v>
       </c>
@@ -6815,11 +6786,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A144" s="60">
+    <row r="144" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A144" s="70">
         <v>2053</v>
       </c>
-      <c r="B144" s="60"/>
+      <c r="B144" s="70"/>
       <c r="C144" s="38">
         <v>30</v>
       </c>
@@ -6851,11 +6822,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A145" s="60">
+    <row r="145" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A145" s="70">
         <v>2058</v>
       </c>
-      <c r="B145" s="60"/>
+      <c r="B145" s="70"/>
       <c r="C145" s="38">
         <v>29</v>
       </c>
@@ -6887,11 +6858,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A146" s="60">
+    <row r="146" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A146" s="70">
         <v>2063</v>
       </c>
-      <c r="B146" s="60"/>
+      <c r="B146" s="70"/>
       <c r="C146" s="38">
         <v>29</v>
       </c>
@@ -6923,11 +6894,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A147" s="60">
+    <row r="147" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A147" s="70">
         <v>2068</v>
       </c>
-      <c r="B147" s="60"/>
+      <c r="B147" s="70"/>
       <c r="C147" s="38">
         <v>28</v>
       </c>
@@ -6959,11 +6930,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A148" s="60">
+    <row r="148" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A148" s="70">
         <v>2073</v>
       </c>
-      <c r="B148" s="60"/>
+      <c r="B148" s="70"/>
       <c r="C148" s="38">
         <v>28</v>
       </c>
@@ -6995,27 +6966,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="62" t="s">
+    <row r="149" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A149" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="62"/>
-      <c r="H149" s="62"/>
-      <c r="I149" s="62"/>
-      <c r="J149" s="62"/>
-      <c r="K149" s="62"/>
-      <c r="L149" s="62"/>
-    </row>
-    <row r="150" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A150" s="60" t="s">
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="66"/>
+      <c r="L149" s="66"/>
+    </row>
+    <row r="150" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A150" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B150" s="60"/>
+      <c r="B150" s="70"/>
       <c r="C150" s="52">
         <v>16</v>
       </c>
@@ -7047,11 +7018,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A151" s="60">
+    <row r="151" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A151" s="70">
         <v>2023</v>
       </c>
-      <c r="B151" s="60"/>
+      <c r="B151" s="70"/>
       <c r="C151" s="38">
         <v>17</v>
       </c>
@@ -7083,11 +7054,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A152" s="60">
+    <row r="152" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A152" s="70">
         <v>2028</v>
       </c>
-      <c r="B152" s="60"/>
+      <c r="B152" s="70"/>
       <c r="C152" s="38">
         <v>19</v>
       </c>
@@ -7119,11 +7090,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A153" s="60">
+    <row r="153" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A153" s="70">
         <v>2033</v>
       </c>
-      <c r="B153" s="60"/>
+      <c r="B153" s="70"/>
       <c r="C153" s="38">
         <v>20</v>
       </c>
@@ -7155,11 +7126,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A154" s="60">
+    <row r="154" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A154" s="70">
         <v>2038</v>
       </c>
-      <c r="B154" s="60"/>
+      <c r="B154" s="70"/>
       <c r="C154" s="38">
         <v>21</v>
       </c>
@@ -7191,11 +7162,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A155" s="60">
+    <row r="155" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A155" s="70">
         <v>2043</v>
       </c>
-      <c r="B155" s="60"/>
+      <c r="B155" s="70"/>
       <c r="C155" s="38">
         <v>21</v>
       </c>
@@ -7227,11 +7198,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A156" s="60">
+    <row r="156" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A156" s="70">
         <v>2048</v>
       </c>
-      <c r="B156" s="60"/>
+      <c r="B156" s="70"/>
       <c r="C156" s="38">
         <v>21</v>
       </c>
@@ -7263,11 +7234,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A157" s="60">
+    <row r="157" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A157" s="70">
         <v>2053</v>
       </c>
-      <c r="B157" s="60"/>
+      <c r="B157" s="70"/>
       <c r="C157" s="38">
         <v>22</v>
       </c>
@@ -7299,11 +7270,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A158" s="60">
+    <row r="158" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A158" s="70">
         <v>2058</v>
       </c>
-      <c r="B158" s="60"/>
+      <c r="B158" s="70"/>
       <c r="C158" s="38">
         <v>23</v>
       </c>
@@ -7335,11 +7306,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A159" s="60">
+    <row r="159" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A159" s="70">
         <v>2063</v>
       </c>
-      <c r="B159" s="60"/>
+      <c r="B159" s="70"/>
       <c r="C159" s="38">
         <v>24</v>
       </c>
@@ -7371,11 +7342,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A160" s="60">
+    <row r="160" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A160" s="70">
         <v>2068</v>
       </c>
-      <c r="B160" s="60"/>
+      <c r="B160" s="70"/>
       <c r="C160" s="38">
         <v>24</v>
       </c>
@@ -7407,11 +7378,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A161" s="60">
+    <row r="161" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A161" s="70">
         <v>2073</v>
       </c>
-      <c r="B161" s="60"/>
+      <c r="B161" s="70"/>
       <c r="C161" s="38">
         <v>24</v>
       </c>
@@ -7443,27 +7414,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="19" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="62" t="s">
+    <row r="162" spans="1:12" s="19" customFormat="1" ht="10.5">
+      <c r="A162" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="62"/>
-      <c r="C162" s="62"/>
-      <c r="D162" s="62"/>
-      <c r="E162" s="62"/>
-      <c r="F162" s="62"/>
-      <c r="G162" s="62"/>
-      <c r="H162" s="62"/>
-      <c r="I162" s="62"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="62"/>
-      <c r="L162" s="62"/>
-    </row>
-    <row r="163" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A163" s="60" t="s">
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="66"/>
+      <c r="J162" s="66"/>
+      <c r="K162" s="66"/>
+      <c r="L162" s="66"/>
+    </row>
+    <row r="163" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A163" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B163" s="60"/>
+      <c r="B163" s="70"/>
       <c r="C163" s="52">
         <v>2</v>
       </c>
@@ -7495,11 +7466,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A164" s="60">
+    <row r="164" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A164" s="70">
         <v>2023</v>
       </c>
-      <c r="B164" s="60"/>
+      <c r="B164" s="70"/>
       <c r="C164" s="38">
         <v>2</v>
       </c>
@@ -7531,11 +7502,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A165" s="60">
+    <row r="165" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A165" s="70">
         <v>2028</v>
       </c>
-      <c r="B165" s="60"/>
+      <c r="B165" s="70"/>
       <c r="C165" s="38">
         <v>2</v>
       </c>
@@ -7567,11 +7538,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A166" s="60">
+    <row r="166" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A166" s="70">
         <v>2033</v>
       </c>
-      <c r="B166" s="60"/>
+      <c r="B166" s="70"/>
       <c r="C166" s="38">
         <v>3</v>
       </c>
@@ -7603,11 +7574,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A167" s="60">
+    <row r="167" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A167" s="70">
         <v>2038</v>
       </c>
-      <c r="B167" s="60"/>
+      <c r="B167" s="70"/>
       <c r="C167" s="38">
         <v>3</v>
       </c>
@@ -7639,11 +7610,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A168" s="60">
+    <row r="168" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A168" s="70">
         <v>2043</v>
       </c>
-      <c r="B168" s="60"/>
+      <c r="B168" s="70"/>
       <c r="C168" s="38">
         <v>4</v>
       </c>
@@ -7675,11 +7646,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A169" s="60">
+    <row r="169" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A169" s="70">
         <v>2048</v>
       </c>
-      <c r="B169" s="60"/>
+      <c r="B169" s="70"/>
       <c r="C169" s="38">
         <v>4</v>
       </c>
@@ -7711,11 +7682,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A170" s="60">
+    <row r="170" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A170" s="70">
         <v>2053</v>
       </c>
-      <c r="B170" s="60"/>
+      <c r="B170" s="70"/>
       <c r="C170" s="38">
         <v>4</v>
       </c>
@@ -7747,11 +7718,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A171" s="60">
+    <row r="171" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A171" s="70">
         <v>2058</v>
       </c>
-      <c r="B171" s="60"/>
+      <c r="B171" s="70"/>
       <c r="C171" s="38">
         <v>5</v>
       </c>
@@ -7783,11 +7754,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A172" s="60">
+    <row r="172" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A172" s="70">
         <v>2063</v>
       </c>
-      <c r="B172" s="60"/>
+      <c r="B172" s="70"/>
       <c r="C172" s="38">
         <v>4</v>
       </c>
@@ -7819,11 +7790,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A173" s="60">
+    <row r="173" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A173" s="70">
         <v>2068</v>
       </c>
-      <c r="B173" s="60"/>
+      <c r="B173" s="70"/>
       <c r="C173" s="38">
         <v>4</v>
       </c>
@@ -7855,11 +7826,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A174" s="60">
+    <row r="174" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A174" s="70">
         <v>2073</v>
       </c>
-      <c r="B174" s="60"/>
+      <c r="B174" s="70"/>
       <c r="C174" s="38">
         <v>5</v>
       </c>
@@ -7891,27 +7862,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="62" t="s">
+    <row r="175" spans="1:12" s="19" customFormat="1">
+      <c r="A175" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
-      <c r="D175" s="62"/>
-      <c r="E175" s="62"/>
-      <c r="F175" s="62"/>
-      <c r="G175" s="62"/>
-      <c r="H175" s="62"/>
-      <c r="I175" s="62"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="62"/>
-      <c r="L175" s="62"/>
-    </row>
-    <row r="176" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A176" s="60" t="s">
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="66"/>
+      <c r="J175" s="66"/>
+      <c r="K175" s="66"/>
+      <c r="L175" s="66"/>
+    </row>
+    <row r="176" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A176" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B176" s="60"/>
+      <c r="B176" s="70"/>
       <c r="C176" s="58">
         <v>38</v>
       </c>
@@ -7943,11 +7914,11 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A177" s="60">
+    <row r="177" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A177" s="70">
         <v>2023</v>
       </c>
-      <c r="B177" s="60"/>
+      <c r="B177" s="70"/>
       <c r="C177" s="58">
         <v>38.200000000000003</v>
       </c>
@@ -7979,11 +7950,11 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A178" s="60">
+    <row r="178" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A178" s="70">
         <v>2028</v>
       </c>
-      <c r="B178" s="60"/>
+      <c r="B178" s="70"/>
       <c r="C178" s="58">
         <v>39</v>
       </c>
@@ -8015,11 +7986,11 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A179" s="60">
+    <row r="179" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A179" s="70">
         <v>2033</v>
       </c>
-      <c r="B179" s="60"/>
+      <c r="B179" s="70"/>
       <c r="C179" s="58">
         <v>40.200000000000003</v>
       </c>
@@ -8051,11 +8022,11 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A180" s="60">
+    <row r="180" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A180" s="70">
         <v>2038</v>
       </c>
-      <c r="B180" s="60"/>
+      <c r="B180" s="70"/>
       <c r="C180" s="58">
         <v>40.9</v>
       </c>
@@ -8087,11 +8058,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A181" s="60">
+    <row r="181" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A181" s="70">
         <v>2043</v>
       </c>
-      <c r="B181" s="60"/>
+      <c r="B181" s="70"/>
       <c r="C181" s="58">
         <v>41.3</v>
       </c>
@@ -8123,11 +8094,11 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A182" s="60">
+    <row r="182" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A182" s="70">
         <v>2048</v>
       </c>
-      <c r="B182" s="60"/>
+      <c r="B182" s="70"/>
       <c r="C182" s="58">
         <v>41.5</v>
       </c>
@@ -8159,11 +8130,11 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A183" s="60">
+    <row r="183" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A183" s="70">
         <v>2053</v>
       </c>
-      <c r="B183" s="60"/>
+      <c r="B183" s="70"/>
       <c r="C183" s="58">
         <v>41.9</v>
       </c>
@@ -8195,11 +8166,11 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A184" s="60">
+    <row r="184" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A184" s="70">
         <v>2058</v>
       </c>
-      <c r="B184" s="60"/>
+      <c r="B184" s="70"/>
       <c r="C184" s="58">
         <v>42.3</v>
       </c>
@@ -8231,11 +8202,11 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A185" s="60">
+    <row r="185" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A185" s="70">
         <v>2063</v>
       </c>
-      <c r="B185" s="60"/>
+      <c r="B185" s="70"/>
       <c r="C185" s="58">
         <v>42.3</v>
       </c>
@@ -8267,11 +8238,11 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A186" s="60">
+    <row r="186" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A186" s="70">
         <v>2068</v>
       </c>
-      <c r="B186" s="60"/>
+      <c r="B186" s="70"/>
       <c r="C186" s="58">
         <v>42.1</v>
       </c>
@@ -8303,11 +8274,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A187" s="60">
+    <row r="187" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A187" s="70">
         <v>2073</v>
       </c>
-      <c r="B187" s="60"/>
+      <c r="B187" s="70"/>
       <c r="C187" s="58">
         <v>41.9</v>
       </c>
@@ -8339,27 +8310,27 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="62" t="s">
+    <row r="188" spans="1:12" s="19" customFormat="1">
+      <c r="A188" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B188" s="62"/>
-      <c r="C188" s="62"/>
-      <c r="D188" s="62"/>
-      <c r="E188" s="62"/>
-      <c r="F188" s="62"/>
-      <c r="G188" s="62"/>
-      <c r="H188" s="62"/>
-      <c r="I188" s="62"/>
-      <c r="J188" s="62"/>
-      <c r="K188" s="62"/>
-      <c r="L188" s="62"/>
-    </row>
-    <row r="189" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A189" s="60" t="s">
+      <c r="B188" s="66"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="66"/>
+      <c r="I188" s="66"/>
+      <c r="J188" s="66"/>
+      <c r="K188" s="66"/>
+      <c r="L188" s="66"/>
+    </row>
+    <row r="189" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A189" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B189" s="60"/>
+      <c r="B189" s="70"/>
       <c r="C189" s="52">
         <v>29</v>
       </c>
@@ -8391,11 +8362,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A190" s="60">
+    <row r="190" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A190" s="70">
         <v>2023</v>
       </c>
-      <c r="B190" s="60"/>
+      <c r="B190" s="70"/>
       <c r="C190" s="38">
         <v>29</v>
       </c>
@@ -8427,11 +8398,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A191" s="60">
+    <row r="191" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A191" s="70">
         <v>2028</v>
       </c>
-      <c r="B191" s="60"/>
+      <c r="B191" s="70"/>
       <c r="C191" s="38">
         <v>26</v>
       </c>
@@ -8463,11 +8434,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A192" s="60">
+    <row r="192" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A192" s="70">
         <v>2033</v>
       </c>
-      <c r="B192" s="60"/>
+      <c r="B192" s="70"/>
       <c r="C192" s="38">
         <v>24</v>
       </c>
@@ -8499,11 +8470,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A193" s="60">
+    <row r="193" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A193" s="70">
         <v>2038</v>
       </c>
-      <c r="B193" s="60"/>
+      <c r="B193" s="70"/>
       <c r="C193" s="38">
         <v>22</v>
       </c>
@@ -8535,11 +8506,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A194" s="60">
+    <row r="194" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A194" s="70">
         <v>2043</v>
       </c>
-      <c r="B194" s="60"/>
+      <c r="B194" s="70"/>
       <c r="C194" s="38">
         <v>20</v>
       </c>
@@ -8571,11 +8542,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A195" s="60">
+    <row r="195" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A195" s="70">
         <v>2048</v>
       </c>
-      <c r="B195" s="60"/>
+      <c r="B195" s="70"/>
       <c r="C195" s="38">
         <v>19</v>
       </c>
@@ -8607,11 +8578,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A196" s="60">
+    <row r="196" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A196" s="70">
         <v>2053</v>
       </c>
-      <c r="B196" s="60"/>
+      <c r="B196" s="70"/>
       <c r="C196" s="38">
         <v>19</v>
       </c>
@@ -8643,11 +8614,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A197" s="60">
+    <row r="197" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A197" s="70">
         <v>2058</v>
       </c>
-      <c r="B197" s="60"/>
+      <c r="B197" s="70"/>
       <c r="C197" s="38">
         <v>18</v>
       </c>
@@ -8679,11 +8650,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A198" s="60">
+    <row r="198" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A198" s="70">
         <v>2063</v>
       </c>
-      <c r="B198" s="60"/>
+      <c r="B198" s="70"/>
       <c r="C198" s="38">
         <v>17</v>
       </c>
@@ -8715,11 +8686,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A199" s="60">
+    <row r="199" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A199" s="70">
         <v>2068</v>
       </c>
-      <c r="B199" s="60"/>
+      <c r="B199" s="70"/>
       <c r="C199" s="38">
         <v>16</v>
       </c>
@@ -8751,11 +8722,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A200" s="60">
+    <row r="200" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A200" s="70">
         <v>2073</v>
       </c>
-      <c r="B200" s="60"/>
+      <c r="B200" s="70"/>
       <c r="C200" s="38">
         <v>16</v>
       </c>
@@ -8787,27 +8758,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="62" t="s">
+    <row r="201" spans="1:12" s="19" customFormat="1">
+      <c r="A201" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B201" s="62"/>
-      <c r="C201" s="62"/>
-      <c r="D201" s="62"/>
-      <c r="E201" s="62"/>
-      <c r="F201" s="62"/>
-      <c r="G201" s="62"/>
-      <c r="H201" s="62"/>
-      <c r="I201" s="62"/>
-      <c r="J201" s="62"/>
-      <c r="K201" s="62"/>
-      <c r="L201" s="62"/>
-    </row>
-    <row r="202" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A202" s="60" t="s">
+      <c r="B201" s="66"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
+      <c r="I201" s="66"/>
+      <c r="J201" s="66"/>
+      <c r="K201" s="66"/>
+      <c r="L201" s="66"/>
+    </row>
+    <row r="202" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A202" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B202" s="60"/>
+      <c r="B202" s="70"/>
       <c r="C202" s="52">
         <v>25</v>
       </c>
@@ -8839,11 +8810,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A203" s="60">
+    <row r="203" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A203" s="70">
         <v>2023</v>
       </c>
-      <c r="B203" s="60"/>
+      <c r="B203" s="70"/>
       <c r="C203" s="38">
         <v>26</v>
       </c>
@@ -8875,11 +8846,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A204" s="60">
+    <row r="204" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A204" s="70">
         <v>2028</v>
       </c>
-      <c r="B204" s="60"/>
+      <c r="B204" s="70"/>
       <c r="C204" s="38">
         <v>29</v>
       </c>
@@ -8911,11 +8882,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A205" s="60">
+    <row r="205" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A205" s="70">
         <v>2033</v>
       </c>
-      <c r="B205" s="60"/>
+      <c r="B205" s="70"/>
       <c r="C205" s="38">
         <v>31</v>
       </c>
@@ -8947,11 +8918,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A206" s="60">
+    <row r="206" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A206" s="70">
         <v>2038</v>
       </c>
-      <c r="B206" s="60"/>
+      <c r="B206" s="70"/>
       <c r="C206" s="38">
         <v>33</v>
       </c>
@@ -8983,11 +8954,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A207" s="60">
+    <row r="207" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A207" s="70">
         <v>2043</v>
       </c>
-      <c r="B207" s="60"/>
+      <c r="B207" s="70"/>
       <c r="C207" s="38">
         <v>34</v>
       </c>
@@ -9019,11 +8990,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A208" s="60">
+    <row r="208" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A208" s="70">
         <v>2048</v>
       </c>
-      <c r="B208" s="60"/>
+      <c r="B208" s="70"/>
       <c r="C208" s="38">
         <v>34</v>
       </c>
@@ -9055,11 +9026,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A209" s="60">
+    <row r="209" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A209" s="70">
         <v>2053</v>
       </c>
-      <c r="B209" s="60"/>
+      <c r="B209" s="70"/>
       <c r="C209" s="38">
         <v>36</v>
       </c>
@@ -9091,11 +9062,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A210" s="60">
+    <row r="210" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A210" s="70">
         <v>2058</v>
       </c>
-      <c r="B210" s="60"/>
+      <c r="B210" s="70"/>
       <c r="C210" s="38">
         <v>38</v>
       </c>
@@ -9127,11 +9098,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A211" s="60">
+    <row r="211" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A211" s="70">
         <v>2063</v>
       </c>
-      <c r="B211" s="60"/>
+      <c r="B211" s="70"/>
       <c r="C211" s="38">
         <v>39</v>
       </c>
@@ -9163,11 +9134,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A212" s="60">
+    <row r="212" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A212" s="70">
         <v>2068</v>
       </c>
-      <c r="B212" s="60"/>
+      <c r="B212" s="70"/>
       <c r="C212" s="38">
         <v>40</v>
       </c>
@@ -9199,11 +9170,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A213" s="60">
+    <row r="213" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A213" s="70">
         <v>2073</v>
       </c>
-      <c r="B213" s="60"/>
+      <c r="B213" s="70"/>
       <c r="C213" s="38">
         <v>41</v>
       </c>
@@ -9235,27 +9206,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="62" t="s">
+    <row r="214" spans="1:12" s="19" customFormat="1">
+      <c r="A214" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="62"/>
-      <c r="C214" s="62"/>
-      <c r="D214" s="62"/>
-      <c r="E214" s="62"/>
-      <c r="F214" s="62"/>
-      <c r="G214" s="62"/>
-      <c r="H214" s="62"/>
-      <c r="I214" s="62"/>
-      <c r="J214" s="62"/>
-      <c r="K214" s="62"/>
-      <c r="L214" s="62"/>
-    </row>
-    <row r="215" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A215" s="60" t="s">
+      <c r="B214" s="66"/>
+      <c r="C214" s="66"/>
+      <c r="D214" s="66"/>
+      <c r="E214" s="66"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="66"/>
+      <c r="H214" s="66"/>
+      <c r="I214" s="66"/>
+      <c r="J214" s="66"/>
+      <c r="K214" s="66"/>
+      <c r="L214" s="66"/>
+    </row>
+    <row r="215" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A215" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B215" s="60"/>
+      <c r="B215" s="70"/>
       <c r="C215" s="52">
         <v>54</v>
       </c>
@@ -9287,11 +9258,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A216" s="60">
+    <row r="216" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A216" s="70">
         <v>2023</v>
       </c>
-      <c r="B216" s="60"/>
+      <c r="B216" s="70"/>
       <c r="C216" s="38">
         <v>55</v>
       </c>
@@ -9323,11 +9294,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A217" s="60">
+    <row r="217" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A217" s="70">
         <v>2028</v>
       </c>
-      <c r="B217" s="60"/>
+      <c r="B217" s="70"/>
       <c r="C217" s="38">
         <v>56</v>
       </c>
@@ -9359,11 +9330,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A218" s="60">
+    <row r="218" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A218" s="70">
         <v>2033</v>
       </c>
-      <c r="B218" s="60"/>
+      <c r="B218" s="70"/>
       <c r="C218" s="38">
         <v>56</v>
       </c>
@@ -9395,11 +9366,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A219" s="60">
+    <row r="219" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A219" s="70">
         <v>2038</v>
       </c>
-      <c r="B219" s="60"/>
+      <c r="B219" s="70"/>
       <c r="C219" s="38">
         <v>57</v>
       </c>
@@ -9431,11 +9402,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A220" s="60">
+    <row r="220" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A220" s="70">
         <v>2043</v>
       </c>
-      <c r="B220" s="60"/>
+      <c r="B220" s="70"/>
       <c r="C220" s="38">
         <v>57</v>
       </c>
@@ -9467,11 +9438,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A221" s="60">
+    <row r="221" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A221" s="70">
         <v>2048</v>
       </c>
-      <c r="B221" s="60"/>
+      <c r="B221" s="70"/>
       <c r="C221" s="38">
         <v>57</v>
       </c>
@@ -9503,11 +9474,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A222" s="60">
+    <row r="222" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A222" s="70">
         <v>2053</v>
       </c>
-      <c r="B222" s="60"/>
+      <c r="B222" s="70"/>
       <c r="C222" s="38">
         <v>58</v>
       </c>
@@ -9539,11 +9510,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A223" s="60">
+    <row r="223" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A223" s="70">
         <v>2058</v>
       </c>
-      <c r="B223" s="60"/>
+      <c r="B223" s="70"/>
       <c r="C223" s="38">
         <v>61</v>
       </c>
@@ -9575,11 +9546,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A224" s="60">
+    <row r="224" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A224" s="70">
         <v>2063</v>
       </c>
-      <c r="B224" s="60"/>
+      <c r="B224" s="70"/>
       <c r="C224" s="38">
         <v>62</v>
       </c>
@@ -9611,11 +9582,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A225" s="60">
+    <row r="225" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A225" s="70">
         <v>2068</v>
       </c>
-      <c r="B225" s="60"/>
+      <c r="B225" s="70"/>
       <c r="C225" s="38">
         <v>63</v>
       </c>
@@ -9647,11 +9618,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A226" s="60">
+    <row r="226" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A226" s="70">
         <v>2073</v>
       </c>
-      <c r="B226" s="60"/>
+      <c r="B226" s="70"/>
       <c r="C226" s="38">
         <v>65</v>
       </c>
@@ -9683,27 +9654,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="61" t="s">
+    <row r="227" spans="1:12" s="19" customFormat="1">
+      <c r="A227" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B227" s="61"/>
-      <c r="C227" s="62"/>
-      <c r="D227" s="62"/>
-      <c r="E227" s="62"/>
-      <c r="F227" s="62"/>
-      <c r="G227" s="62"/>
-      <c r="H227" s="62"/>
-      <c r="I227" s="62"/>
-      <c r="J227" s="62"/>
-      <c r="K227" s="62"/>
-      <c r="L227" s="62"/>
-    </row>
-    <row r="228" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A228" s="60">
+      <c r="B227" s="71"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="66"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="66"/>
+      <c r="H227" s="66"/>
+      <c r="I227" s="66"/>
+      <c r="J227" s="66"/>
+      <c r="K227" s="66"/>
+      <c r="L227" s="66"/>
+    </row>
+    <row r="228" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A228" s="70">
         <v>2023</v>
       </c>
-      <c r="B228" s="60"/>
+      <c r="B228" s="70"/>
       <c r="C228" s="52">
         <v>57</v>
       </c>
@@ -9735,11 +9706,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A229" s="60">
+    <row r="229" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A229" s="70">
         <v>2028</v>
       </c>
-      <c r="B229" s="60"/>
+      <c r="B229" s="70"/>
       <c r="C229" s="38">
         <v>51</v>
       </c>
@@ -9771,11 +9742,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A230" s="60">
+    <row r="230" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A230" s="70">
         <v>2033</v>
       </c>
-      <c r="B230" s="60"/>
+      <c r="B230" s="70"/>
       <c r="C230" s="38">
         <v>48</v>
       </c>
@@ -9807,11 +9778,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A231" s="60">
+    <row r="231" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A231" s="70">
         <v>2038</v>
       </c>
-      <c r="B231" s="60"/>
+      <c r="B231" s="70"/>
       <c r="C231" s="38">
         <v>46</v>
       </c>
@@ -9843,11 +9814,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A232" s="60">
+    <row r="232" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A232" s="70">
         <v>2043</v>
       </c>
-      <c r="B232" s="60"/>
+      <c r="B232" s="70"/>
       <c r="C232" s="38">
         <v>45</v>
       </c>
@@ -9879,11 +9850,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A233" s="60">
+    <row r="233" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A233" s="70">
         <v>2048</v>
       </c>
-      <c r="B233" s="60"/>
+      <c r="B233" s="70"/>
       <c r="C233" s="38">
         <v>43</v>
       </c>
@@ -9915,11 +9886,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A234" s="60">
+    <row r="234" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A234" s="70">
         <v>2053</v>
       </c>
-      <c r="B234" s="60"/>
+      <c r="B234" s="70"/>
       <c r="C234" s="38">
         <v>41</v>
       </c>
@@ -9951,11 +9922,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A235" s="60">
+    <row r="235" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A235" s="70">
         <v>2058</v>
       </c>
-      <c r="B235" s="60"/>
+      <c r="B235" s="70"/>
       <c r="C235" s="38">
         <v>38</v>
       </c>
@@ -9987,11 +9958,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A236" s="60">
+    <row r="236" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A236" s="70">
         <v>2063</v>
       </c>
-      <c r="B236" s="60"/>
+      <c r="B236" s="70"/>
       <c r="C236" s="38">
         <v>35</v>
       </c>
@@ -10023,11 +9994,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A237" s="60">
+    <row r="237" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A237" s="70">
         <v>2068</v>
       </c>
-      <c r="B237" s="60"/>
+      <c r="B237" s="70"/>
       <c r="C237" s="38">
         <v>32</v>
       </c>
@@ -10059,11 +10030,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A238" s="60">
+    <row r="238" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A238" s="70">
         <v>2073</v>
       </c>
-      <c r="B238" s="60"/>
+      <c r="B238" s="70"/>
       <c r="C238" s="38">
         <v>30</v>
       </c>
@@ -10095,27 +10066,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="62" t="s">
+    <row r="239" spans="1:12" s="19" customFormat="1">
+      <c r="A239" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B239" s="62"/>
-      <c r="C239" s="62"/>
-      <c r="D239" s="62"/>
-      <c r="E239" s="62"/>
-      <c r="F239" s="62"/>
-      <c r="G239" s="62"/>
-      <c r="H239" s="62"/>
-      <c r="I239" s="62"/>
-      <c r="J239" s="62"/>
-      <c r="K239" s="62"/>
-      <c r="L239" s="62"/>
-    </row>
-    <row r="240" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A240" s="60">
+      <c r="B239" s="66"/>
+      <c r="C239" s="66"/>
+      <c r="D239" s="66"/>
+      <c r="E239" s="66"/>
+      <c r="F239" s="66"/>
+      <c r="G239" s="66"/>
+      <c r="H239" s="66"/>
+      <c r="I239" s="66"/>
+      <c r="J239" s="66"/>
+      <c r="K239" s="66"/>
+      <c r="L239" s="66"/>
+    </row>
+    <row r="240" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A240" s="70">
         <v>2023</v>
       </c>
-      <c r="B240" s="60"/>
+      <c r="B240" s="70"/>
       <c r="C240" s="38">
         <v>35</v>
       </c>
@@ -10147,11 +10118,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A241" s="60">
+    <row r="241" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A241" s="70">
         <v>2028</v>
       </c>
-      <c r="B241" s="60"/>
+      <c r="B241" s="70"/>
       <c r="C241" s="38">
         <v>38</v>
       </c>
@@ -10183,11 +10154,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A242" s="60">
+    <row r="242" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A242" s="70">
         <v>2033</v>
       </c>
-      <c r="B242" s="60"/>
+      <c r="B242" s="70"/>
       <c r="C242" s="38">
         <v>42</v>
       </c>
@@ -10219,11 +10190,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A243" s="60">
+    <row r="243" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A243" s="70">
         <v>2038</v>
       </c>
-      <c r="B243" s="60"/>
+      <c r="B243" s="70"/>
       <c r="C243" s="38">
         <v>46</v>
       </c>
@@ -10255,11 +10226,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A244" s="60">
+    <row r="244" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A244" s="70">
         <v>2043</v>
       </c>
-      <c r="B244" s="60"/>
+      <c r="B244" s="70"/>
       <c r="C244" s="38">
         <v>50</v>
       </c>
@@ -10291,11 +10262,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A245" s="60">
+    <row r="245" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A245" s="70">
         <v>2048</v>
       </c>
-      <c r="B245" s="60"/>
+      <c r="B245" s="70"/>
       <c r="C245" s="38">
         <v>53</v>
       </c>
@@ -10327,11 +10298,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A246" s="60">
+    <row r="246" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A246" s="70">
         <v>2053</v>
       </c>
-      <c r="B246" s="60"/>
+      <c r="B246" s="70"/>
       <c r="C246" s="38">
         <v>56</v>
       </c>
@@ -10363,11 +10334,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A247" s="60">
+    <row r="247" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A247" s="70">
         <v>2058</v>
       </c>
-      <c r="B247" s="60"/>
+      <c r="B247" s="70"/>
       <c r="C247" s="38">
         <v>58</v>
       </c>
@@ -10399,11 +10370,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A248" s="60">
+    <row r="248" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A248" s="70">
         <v>2063</v>
       </c>
-      <c r="B248" s="60"/>
+      <c r="B248" s="70"/>
       <c r="C248" s="38">
         <v>58</v>
       </c>
@@ -10435,11 +10406,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A249" s="60">
+    <row r="249" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A249" s="70">
         <v>2068</v>
       </c>
-      <c r="B249" s="60"/>
+      <c r="B249" s="70"/>
       <c r="C249" s="38">
         <v>58</v>
       </c>
@@ -10471,11 +10442,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="250" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A250" s="60">
+    <row r="250" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A250" s="70">
         <v>2073</v>
       </c>
-      <c r="B250" s="60"/>
+      <c r="B250" s="70"/>
       <c r="C250" s="38">
         <v>59</v>
       </c>
@@ -10507,27 +10478,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="251" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="62" t="s">
+    <row r="251" spans="1:12" s="19" customFormat="1">
+      <c r="A251" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="62"/>
-      <c r="E251" s="62"/>
-      <c r="F251" s="62"/>
-      <c r="G251" s="62"/>
-      <c r="H251" s="62"/>
-      <c r="I251" s="62"/>
-      <c r="J251" s="62"/>
-      <c r="K251" s="62"/>
-      <c r="L251" s="62"/>
-    </row>
-    <row r="252" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A252" s="60">
+      <c r="B251" s="66"/>
+      <c r="C251" s="66"/>
+      <c r="D251" s="66"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="66"/>
+      <c r="G251" s="66"/>
+      <c r="H251" s="66"/>
+      <c r="I251" s="66"/>
+      <c r="J251" s="66"/>
+      <c r="K251" s="66"/>
+      <c r="L251" s="66"/>
+    </row>
+    <row r="252" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A252" s="70">
         <v>2023</v>
       </c>
-      <c r="B252" s="60"/>
+      <c r="B252" s="70"/>
       <c r="C252" s="38">
         <v>20</v>
       </c>
@@ -10559,11 +10530,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A253" s="60">
+    <row r="253" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A253" s="70">
         <v>2028</v>
       </c>
-      <c r="B253" s="60"/>
+      <c r="B253" s="70"/>
       <c r="C253" s="38">
         <v>11</v>
       </c>
@@ -10595,11 +10566,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A254" s="60">
+    <row r="254" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A254" s="70">
         <v>2033</v>
       </c>
-      <c r="B254" s="60"/>
+      <c r="B254" s="70"/>
       <c r="C254" s="38">
         <v>4</v>
       </c>
@@ -10631,11 +10602,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A255" s="60">
+    <row r="255" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A255" s="70">
         <v>2038</v>
       </c>
-      <c r="B255" s="60"/>
+      <c r="B255" s="70"/>
       <c r="C255" s="38">
         <v>-3</v>
       </c>
@@ -10667,11 +10638,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A256" s="60">
+    <row r="256" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A256" s="70">
         <v>2043</v>
       </c>
-      <c r="B256" s="60"/>
+      <c r="B256" s="70"/>
       <c r="C256" s="38">
         <v>-9</v>
       </c>
@@ -10703,11 +10674,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A257" s="60">
+    <row r="257" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A257" s="70">
         <v>2048</v>
       </c>
-      <c r="B257" s="60"/>
+      <c r="B257" s="70"/>
       <c r="C257" s="38">
         <v>-14</v>
       </c>
@@ -10739,11 +10710,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A258" s="60">
+    <row r="258" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A258" s="70">
         <v>2053</v>
       </c>
-      <c r="B258" s="60"/>
+      <c r="B258" s="70"/>
       <c r="C258" s="38">
         <v>-20</v>
       </c>
@@ -10775,11 +10746,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A259" s="60">
+    <row r="259" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A259" s="70">
         <v>2058</v>
       </c>
-      <c r="B259" s="60"/>
+      <c r="B259" s="70"/>
       <c r="C259" s="38">
         <v>-24</v>
       </c>
@@ -10811,11 +10782,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A260" s="60">
+    <row r="260" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A260" s="70">
         <v>2063</v>
       </c>
-      <c r="B260" s="60"/>
+      <c r="B260" s="70"/>
       <c r="C260" s="38">
         <v>-28</v>
       </c>
@@ -10847,11 +10818,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A261" s="60">
+    <row r="261" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A261" s="70">
         <v>2068</v>
       </c>
-      <c r="B261" s="60"/>
+      <c r="B261" s="70"/>
       <c r="C261" s="38">
         <v>-32</v>
       </c>
@@ -10883,11 +10854,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A262" s="60">
+    <row r="262" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A262" s="70">
         <v>2073</v>
       </c>
-      <c r="B262" s="60"/>
+      <c r="B262" s="70"/>
       <c r="C262" s="38">
         <v>-36</v>
       </c>
@@ -10919,27 +10890,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="62" t="s">
+    <row r="263" spans="1:12" s="19" customFormat="1">
+      <c r="A263" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
-      <c r="D263" s="62"/>
-      <c r="E263" s="62"/>
-      <c r="F263" s="62"/>
-      <c r="G263" s="62"/>
-      <c r="H263" s="62"/>
-      <c r="I263" s="62"/>
-      <c r="J263" s="62"/>
-      <c r="K263" s="62"/>
-      <c r="L263" s="62"/>
-    </row>
-    <row r="264" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A264" s="60">
+      <c r="B263" s="66"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="66"/>
+      <c r="E263" s="66"/>
+      <c r="F263" s="66"/>
+      <c r="G263" s="66"/>
+      <c r="H263" s="66"/>
+      <c r="I263" s="66"/>
+      <c r="J263" s="66"/>
+      <c r="K263" s="66"/>
+      <c r="L263" s="66"/>
+    </row>
+    <row r="264" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A264" s="70">
         <v>2023</v>
       </c>
-      <c r="B264" s="60"/>
+      <c r="B264" s="70"/>
       <c r="C264" s="27">
         <v>-36.200000000000003</v>
       </c>
@@ -10971,11 +10942,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A265" s="60">
+    <row r="265" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A265" s="70">
         <v>2028</v>
       </c>
-      <c r="B265" s="60"/>
+      <c r="B265" s="70"/>
       <c r="C265" s="27">
         <v>-20.3</v>
       </c>
@@ -11007,11 +10978,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A266" s="60">
+    <row r="266" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A266" s="70">
         <v>2033</v>
       </c>
-      <c r="B266" s="60"/>
+      <c r="B266" s="70"/>
       <c r="C266" s="27">
         <v>-20.3</v>
       </c>
@@ -11043,11 +11014,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A267" s="60">
+    <row r="267" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A267" s="70">
         <v>2038</v>
       </c>
-      <c r="B267" s="60"/>
+      <c r="B267" s="70"/>
       <c r="C267" s="27">
         <v>-20.3</v>
       </c>
@@ -11079,11 +11050,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="268" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A268" s="60">
+    <row r="268" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A268" s="70">
         <v>2043</v>
       </c>
-      <c r="B268" s="60"/>
+      <c r="B268" s="70"/>
       <c r="C268" s="27">
         <v>-20.3</v>
       </c>
@@ -11115,11 +11086,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="269" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A269" s="60">
+    <row r="269" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A269" s="70">
         <v>2048</v>
       </c>
-      <c r="B269" s="60"/>
+      <c r="B269" s="70"/>
       <c r="C269" s="27">
         <v>-20.3</v>
       </c>
@@ -11151,11 +11122,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="270" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A270" s="60">
+    <row r="270" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A270" s="70">
         <v>2053</v>
       </c>
-      <c r="B270" s="60"/>
+      <c r="B270" s="70"/>
       <c r="C270" s="27">
         <v>-20.3</v>
       </c>
@@ -11187,11 +11158,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A271" s="60">
+    <row r="271" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A271" s="70">
         <v>2058</v>
       </c>
-      <c r="B271" s="60"/>
+      <c r="B271" s="70"/>
       <c r="C271" s="27">
         <v>-20.3</v>
       </c>
@@ -11223,11 +11194,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A272" s="60">
+    <row r="272" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A272" s="70">
         <v>2063</v>
       </c>
-      <c r="B272" s="60"/>
+      <c r="B272" s="70"/>
       <c r="C272" s="27">
         <v>-20.3</v>
       </c>
@@ -11259,11 +11230,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A273" s="60">
+    <row r="273" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A273" s="70">
         <v>2068</v>
       </c>
-      <c r="B273" s="60"/>
+      <c r="B273" s="70"/>
       <c r="C273" s="27">
         <v>-20.3</v>
       </c>
@@ -11295,11 +11266,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A274" s="60">
+    <row r="274" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A274" s="70">
         <v>2073</v>
       </c>
-      <c r="B274" s="60"/>
+      <c r="B274" s="70"/>
       <c r="C274" s="27">
         <v>-20.3</v>
       </c>
@@ -11331,27 +11302,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="62" t="s">
+    <row r="275" spans="1:12" s="19" customFormat="1">
+      <c r="A275" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B275" s="62"/>
-      <c r="C275" s="62"/>
-      <c r="D275" s="62"/>
-      <c r="E275" s="62"/>
-      <c r="F275" s="62"/>
-      <c r="G275" s="62"/>
-      <c r="H275" s="62"/>
-      <c r="I275" s="62"/>
-      <c r="J275" s="62"/>
-      <c r="K275" s="62"/>
-      <c r="L275" s="62"/>
-    </row>
-    <row r="276" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A276" s="60">
+      <c r="B275" s="66"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="66"/>
+      <c r="E275" s="66"/>
+      <c r="F275" s="66"/>
+      <c r="G275" s="66"/>
+      <c r="H275" s="66"/>
+      <c r="I275" s="66"/>
+      <c r="J275" s="66"/>
+      <c r="K275" s="66"/>
+      <c r="L275" s="66"/>
+    </row>
+    <row r="276" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A276" s="70">
         <v>2023</v>
       </c>
-      <c r="B276" s="60"/>
+      <c r="B276" s="70"/>
       <c r="C276" s="39">
         <v>1.61</v>
       </c>
@@ -11383,11 +11354,11 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="277" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A277" s="60">
+    <row r="277" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A277" s="70">
         <v>2028</v>
       </c>
-      <c r="B277" s="60"/>
+      <c r="B277" s="70"/>
       <c r="C277" s="39">
         <v>1.45</v>
       </c>
@@ -11419,11 +11390,11 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="278" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A278" s="60">
+    <row r="278" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A278" s="70">
         <v>2033</v>
       </c>
-      <c r="B278" s="60"/>
+      <c r="B278" s="70"/>
       <c r="C278" s="39">
         <v>1.36</v>
       </c>
@@ -11455,11 +11426,11 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A279" s="60">
+    <row r="279" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A279" s="70">
         <v>2038</v>
       </c>
-      <c r="B279" s="60"/>
+      <c r="B279" s="70"/>
       <c r="C279" s="39">
         <v>1.29</v>
       </c>
@@ -11491,11 +11462,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="280" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A280" s="60">
+    <row r="280" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A280" s="70">
         <v>2043</v>
       </c>
-      <c r="B280" s="60"/>
+      <c r="B280" s="70"/>
       <c r="C280" s="39">
         <v>1.22</v>
       </c>
@@ -11527,11 +11498,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="281" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A281" s="60">
+    <row r="281" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A281" s="70">
         <v>2048</v>
       </c>
-      <c r="B281" s="60"/>
+      <c r="B281" s="70"/>
       <c r="C281" s="39">
         <v>1.18</v>
       </c>
@@ -11563,11 +11534,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="282" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A282" s="60">
+    <row r="282" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A282" s="70">
         <v>2053</v>
       </c>
-      <c r="B282" s="60"/>
+      <c r="B282" s="70"/>
       <c r="C282" s="39">
         <v>1.1399999999999999</v>
       </c>
@@ -11599,11 +11570,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="283" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A283" s="60">
+    <row r="283" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A283" s="70">
         <v>2058</v>
       </c>
-      <c r="B283" s="60"/>
+      <c r="B283" s="70"/>
       <c r="C283" s="39">
         <v>1.1100000000000001</v>
       </c>
@@ -11635,11 +11606,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="284" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A284" s="60">
+    <row r="284" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A284" s="70">
         <v>2063</v>
       </c>
-      <c r="B284" s="60"/>
+      <c r="B284" s="70"/>
       <c r="C284" s="39">
         <v>1.06</v>
       </c>
@@ -11671,11 +11642,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="285" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A285" s="60">
+    <row r="285" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A285" s="70">
         <v>2068</v>
       </c>
-      <c r="B285" s="60"/>
+      <c r="B285" s="70"/>
       <c r="C285" s="39">
         <v>1.01</v>
       </c>
@@ -11707,11 +11678,11 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="286" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A286" s="60">
+    <row r="286" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A286" s="70">
         <v>2073</v>
       </c>
-      <c r="B286" s="60"/>
+      <c r="B286" s="70"/>
       <c r="C286" s="39">
         <v>0.98</v>
       </c>
@@ -11743,27 +11714,27 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="287" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="62" t="s">
+    <row r="287" spans="1:12" s="19" customFormat="1">
+      <c r="A287" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B287" s="62"/>
-      <c r="C287" s="62"/>
-      <c r="D287" s="62"/>
-      <c r="E287" s="62"/>
-      <c r="F287" s="62"/>
-      <c r="G287" s="62"/>
-      <c r="H287" s="62"/>
-      <c r="I287" s="62"/>
-      <c r="J287" s="62"/>
-      <c r="K287" s="62"/>
-      <c r="L287" s="62"/>
-    </row>
-    <row r="288" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A288" s="60">
+      <c r="B287" s="66"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="66"/>
+      <c r="E287" s="66"/>
+      <c r="F287" s="66"/>
+      <c r="G287" s="66"/>
+      <c r="H287" s="66"/>
+      <c r="I287" s="66"/>
+      <c r="J287" s="66"/>
+      <c r="K287" s="66"/>
+      <c r="L287" s="66"/>
+    </row>
+    <row r="288" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A288" s="70">
         <v>2023</v>
       </c>
-      <c r="B288" s="60"/>
+      <c r="B288" s="70"/>
       <c r="C288" s="27">
         <v>80.400000000000006</v>
       </c>
@@ -11795,11 +11766,11 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A289" s="60">
+    <row r="289" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A289" s="70">
         <v>2028</v>
       </c>
-      <c r="B289" s="60"/>
+      <c r="B289" s="70"/>
       <c r="C289" s="27">
         <v>80.900000000000006</v>
       </c>
@@ -11831,11 +11802,11 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A290" s="60">
+    <row r="290" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A290" s="70">
         <v>2033</v>
       </c>
-      <c r="B290" s="60"/>
+      <c r="B290" s="70"/>
       <c r="C290" s="27">
         <v>81.3</v>
       </c>
@@ -11867,11 +11838,11 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A291" s="60">
+    <row r="291" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A291" s="70">
         <v>2038</v>
       </c>
-      <c r="B291" s="60"/>
+      <c r="B291" s="70"/>
       <c r="C291" s="27">
         <v>81.8</v>
       </c>
@@ -11903,11 +11874,11 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A292" s="60">
+    <row r="292" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A292" s="70">
         <v>2043</v>
       </c>
-      <c r="B292" s="60"/>
+      <c r="B292" s="70"/>
       <c r="C292" s="27">
         <v>82.2</v>
       </c>
@@ -11939,11 +11910,11 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="293" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A293" s="60">
+    <row r="293" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A293" s="70">
         <v>2048</v>
       </c>
-      <c r="B293" s="60"/>
+      <c r="B293" s="70"/>
       <c r="C293" s="27">
         <v>82.6</v>
       </c>
@@ -11975,11 +11946,11 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="294" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A294" s="60">
+    <row r="294" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A294" s="70">
         <v>2053</v>
       </c>
-      <c r="B294" s="60"/>
+      <c r="B294" s="70"/>
       <c r="C294" s="27">
         <v>82.9</v>
       </c>
@@ -12011,11 +11982,11 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="295" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A295" s="60">
+    <row r="295" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A295" s="70">
         <v>2058</v>
       </c>
-      <c r="B295" s="60"/>
+      <c r="B295" s="70"/>
       <c r="C295" s="27">
         <v>83.2</v>
       </c>
@@ -12047,11 +12018,11 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="296" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A296" s="60">
+    <row r="296" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A296" s="70">
         <v>2063</v>
       </c>
-      <c r="B296" s="60"/>
+      <c r="B296" s="70"/>
       <c r="C296" s="27">
         <v>83.4</v>
       </c>
@@ -12083,11 +12054,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="297" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A297" s="60">
+    <row r="297" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A297" s="70">
         <v>2068</v>
       </c>
-      <c r="B297" s="60"/>
+      <c r="B297" s="70"/>
       <c r="C297" s="27">
         <v>83.7</v>
       </c>
@@ -12119,11 +12090,11 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="298" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A298" s="60">
+    <row r="298" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A298" s="70">
         <v>2073</v>
       </c>
-      <c r="B298" s="60"/>
+      <c r="B298" s="70"/>
       <c r="C298" s="27">
         <v>83.9</v>
       </c>
@@ -12155,27 +12126,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="299" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="62" t="s">
+    <row r="299" spans="1:12" s="19" customFormat="1">
+      <c r="A299" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B299" s="62"/>
-      <c r="C299" s="62"/>
-      <c r="D299" s="62"/>
-      <c r="E299" s="62"/>
-      <c r="F299" s="62"/>
-      <c r="G299" s="62"/>
-      <c r="H299" s="62"/>
-      <c r="I299" s="62"/>
-      <c r="J299" s="62"/>
-      <c r="K299" s="62"/>
-      <c r="L299" s="62"/>
-    </row>
-    <row r="300" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A300" s="60">
+      <c r="B299" s="66"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="66"/>
+      <c r="E299" s="66"/>
+      <c r="F299" s="66"/>
+      <c r="G299" s="66"/>
+      <c r="H299" s="66"/>
+      <c r="I299" s="66"/>
+      <c r="J299" s="66"/>
+      <c r="K299" s="66"/>
+      <c r="L299" s="66"/>
+    </row>
+    <row r="300" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A300" s="70">
         <v>2023</v>
       </c>
-      <c r="B300" s="60"/>
+      <c r="B300" s="70"/>
       <c r="C300" s="27">
         <v>83.7</v>
       </c>
@@ -12207,11 +12178,11 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A301" s="60">
+    <row r="301" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A301" s="70">
         <v>2028</v>
       </c>
-      <c r="B301" s="60"/>
+      <c r="B301" s="70"/>
       <c r="C301" s="27">
         <v>84.3</v>
       </c>
@@ -12243,11 +12214,11 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="302" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A302" s="60">
+    <row r="302" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A302" s="70">
         <v>2033</v>
       </c>
-      <c r="B302" s="60"/>
+      <c r="B302" s="70"/>
       <c r="C302" s="27">
         <v>84.7</v>
       </c>
@@ -12279,11 +12250,11 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="303" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A303" s="60">
+    <row r="303" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A303" s="70">
         <v>2038</v>
       </c>
-      <c r="B303" s="60"/>
+      <c r="B303" s="70"/>
       <c r="C303" s="27">
         <v>85.1</v>
       </c>
@@ -12315,11 +12286,11 @@
         <v>86.1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A304" s="60">
+    <row r="304" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A304" s="70">
         <v>2043</v>
       </c>
-      <c r="B304" s="60"/>
+      <c r="B304" s="70"/>
       <c r="C304" s="27">
         <v>85.5</v>
       </c>
@@ -12351,11 +12322,11 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="305" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A305" s="60">
+    <row r="305" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A305" s="70">
         <v>2048</v>
       </c>
-      <c r="B305" s="60"/>
+      <c r="B305" s="70"/>
       <c r="C305" s="27">
         <v>85.9</v>
       </c>
@@ -12387,11 +12358,11 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="306" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A306" s="60">
+    <row r="306" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A306" s="70">
         <v>2053</v>
       </c>
-      <c r="B306" s="60"/>
+      <c r="B306" s="70"/>
       <c r="C306" s="27">
         <v>86.2</v>
       </c>
@@ -12423,11 +12394,11 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="307" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A307" s="60">
+    <row r="307" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A307" s="70">
         <v>2058</v>
       </c>
-      <c r="B307" s="60"/>
+      <c r="B307" s="70"/>
       <c r="C307" s="27">
         <v>86.4</v>
       </c>
@@ -12459,11 +12430,11 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="308" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A308" s="60">
+    <row r="308" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A308" s="70">
         <v>2063</v>
       </c>
-      <c r="B308" s="60"/>
+      <c r="B308" s="70"/>
       <c r="C308" s="27">
         <v>86.6</v>
       </c>
@@ -12495,11 +12466,11 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="309" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A309" s="60">
+    <row r="309" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A309" s="70">
         <v>2068</v>
       </c>
-      <c r="B309" s="60"/>
+      <c r="B309" s="70"/>
       <c r="C309" s="27">
         <v>86.9</v>
       </c>
@@ -12531,11 +12502,11 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="310" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
-      <c r="A310" s="59">
+    <row r="310" spans="1:12" s="19" customFormat="1" ht="10">
+      <c r="A310" s="72">
         <v>2073</v>
       </c>
-      <c r="B310" s="59"/>
+      <c r="B310" s="72"/>
       <c r="C310" s="51">
         <v>87</v>
       </c>
@@ -12567,7 +12538,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="311" spans="1:12" s="19" customFormat="1" ht="10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" s="19" customFormat="1" ht="10">
       <c r="A311" s="25"/>
       <c r="B311" s="25"/>
       <c r="C311" s="28"/>
@@ -12581,7 +12552,7 @@
       <c r="K311" s="28"/>
       <c r="L311" s="28"/>
     </row>
-    <row r="312" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A312" s="34" t="s">
         <v>7</v>
       </c>
@@ -12599,7 +12570,7 @@
       <c r="K312" s="26"/>
       <c r="L312" s="25"/>
     </row>
-    <row r="313" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A313" s="34"/>
       <c r="B313" s="55" t="s">
         <v>68</v>
@@ -12615,7 +12586,7 @@
       <c r="K313" s="26"/>
       <c r="L313" s="25"/>
     </row>
-    <row r="314" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" s="19" customFormat="1" ht="12" customHeight="1">
       <c r="A314" s="34" t="s">
         <v>8</v>
       </c>
@@ -12633,7 +12604,7 @@
       <c r="K314" s="26"/>
       <c r="L314" s="25"/>
     </row>
-    <row r="315" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="12" customHeight="1">
       <c r="A315" s="34"/>
       <c r="B315" s="55" t="s">
         <v>70</v>
@@ -12649,7 +12620,7 @@
       <c r="K315" s="26"/>
       <c r="L315" s="25"/>
     </row>
-    <row r="316" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="12" customHeight="1">
       <c r="A316" s="34" t="s">
         <v>9</v>
       </c>
@@ -12667,7 +12638,7 @@
       <c r="K316" s="26"/>
       <c r="L316" s="25"/>
     </row>
-    <row r="317" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="12" customHeight="1">
       <c r="A317" s="34"/>
       <c r="B317" s="56" t="s">
         <v>95</v>
@@ -12683,7 +12654,7 @@
       <c r="K317" s="26"/>
       <c r="L317" s="25"/>
     </row>
-    <row r="318" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="12" customHeight="1">
       <c r="A318" s="34" t="s">
         <v>22</v>
       </c>
@@ -12701,7 +12672,7 @@
       <c r="K318" s="26"/>
       <c r="L318" s="25"/>
     </row>
-    <row r="319" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="12" customHeight="1">
       <c r="A319" s="34" t="s">
         <v>23</v>
       </c>
@@ -12719,7 +12690,7 @@
       <c r="K319" s="26"/>
       <c r="L319" s="25"/>
     </row>
-    <row r="320" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="12" customHeight="1">
       <c r="A320" s="34" t="s">
         <v>47</v>
       </c>
@@ -12737,7 +12708,7 @@
       <c r="K320" s="26"/>
       <c r="L320" s="25"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="34" t="s">
         <v>46</v>
       </c>
@@ -12745,7 +12716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="34" t="s">
         <v>48</v>
       </c>
@@ -12753,7 +12724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="34" t="s">
         <v>49</v>
       </c>
@@ -12762,7 +12733,7 @@
       </c>
       <c r="C323" s="36"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="34" t="s">
         <v>24</v>
       </c>
@@ -12771,7 +12742,7 @@
       </c>
       <c r="C324" s="36"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="34" t="s">
         <v>25</v>
       </c>
@@ -12780,7 +12751,7 @@
       </c>
       <c r="C325" s="36"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="34" t="s">
         <v>26</v>
       </c>
@@ -12789,7 +12760,7 @@
       </c>
       <c r="C326" s="36"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="34" t="s">
         <v>27</v>
       </c>
@@ -12798,7 +12769,7 @@
       </c>
       <c r="C327" s="36"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="34" t="s">
         <v>51</v>
       </c>
@@ -12806,7 +12777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="34" t="s">
         <v>40</v>
       </c>
@@ -12814,7 +12785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="34" t="s">
         <v>61</v>
       </c>
@@ -12822,34 +12793,315 @@
         <v>81</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="8.25" customHeight="1">
       <c r="A331" s="34"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="12" customHeight="1">
       <c r="A333" s="43" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="12" customHeight="1">
       <c r="A334" s="43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="7.5" customHeight="1">
       <c r="A335" s="35"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="29" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="305">
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:L227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A214:L214"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A251:L251"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A239:L239"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A188:L188"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A162:L162"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A136:L136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A149:L149"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A123:L123"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A110:L110"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="A275:L275"/>
     <mergeCell ref="A287:L287"/>
@@ -12874,344 +13126,2458 @@
     <mergeCell ref="A283:B283"/>
     <mergeCell ref="A285:B285"/>
     <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A110:L110"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A97:L97"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A123:L123"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A136:L136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A149:L149"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A188:L188"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A162:L162"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A251:L251"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A239:L239"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A175:L175"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A214:L214"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:L227"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A205:B205"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF7F9F5-0E41-42A9-99A4-A1A65766F6E7}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="70">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="40">
+        <v>864</v>
+      </c>
+      <c r="D3" s="40">
+        <v>867</v>
+      </c>
+      <c r="E3" s="40">
+        <v>869</v>
+      </c>
+      <c r="F3" s="40">
+        <v>871</v>
+      </c>
+      <c r="G3" s="40">
+        <v>875</v>
+      </c>
+      <c r="H3" s="40">
+        <v>869</v>
+      </c>
+      <c r="I3" s="40">
+        <v>869</v>
+      </c>
+      <c r="J3" s="40">
+        <v>869</v>
+      </c>
+      <c r="K3" s="40">
+        <v>869</v>
+      </c>
+      <c r="L3" s="40">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="40">
+        <v>1011</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1017</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1020</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1024</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1030</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1020</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1028</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1014</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1020</v>
+      </c>
+      <c r="L4" s="40">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70">
+        <v>2033</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="40">
+        <v>1136</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1145</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1153</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1159</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1170</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1153</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1176</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1137</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1150</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70">
+        <v>2038</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="40">
+        <v>1244</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1260</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1272</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1283</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1300</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1272</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1320</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1249</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1271</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70">
+        <v>2043</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="40">
+        <v>1296</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1321</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1338</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1355</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1381</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1338</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1419</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1309</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1334</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="40">
+        <v>1340</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1375</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1399</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1423</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1460</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1399</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1521</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1362</v>
+      </c>
+      <c r="K8" s="40">
+        <v>1395</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70">
+        <v>2053</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="40">
+        <v>1401</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1448</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1480</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1514</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1565</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1480</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1650</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1428</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1473</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70">
+        <v>2058</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="40">
+        <v>1493</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1556</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1597</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1641</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1705</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1597</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1819</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1514</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1589</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70">
+        <v>2063</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="40">
+        <v>1556</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1635</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1688</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1745</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1826</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1688</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1964</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1556</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1676</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70">
+        <v>2068</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="40">
+        <v>1595</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1695</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1763</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1834</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1936</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1763</v>
+      </c>
+      <c r="I12" s="40">
+        <v>2095</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1573</v>
+      </c>
+      <c r="K12" s="40">
+        <v>1747</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="40">
+        <v>1645</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1767</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1850</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1939</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2062</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1850</v>
+      </c>
+      <c r="I13" s="40">
+        <v>2246</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1588</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1829</v>
+      </c>
+      <c r="L13" s="40">
+        <v>2122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4533EEC9-A3BE-4932-8379-134F7FD9B316}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="70">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="40">
+        <v>946</v>
+      </c>
+      <c r="D3" s="40">
+        <v>952</v>
+      </c>
+      <c r="E3" s="40">
+        <v>956</v>
+      </c>
+      <c r="F3" s="40">
+        <v>960</v>
+      </c>
+      <c r="G3" s="40">
+        <v>965</v>
+      </c>
+      <c r="H3" s="40">
+        <v>958</v>
+      </c>
+      <c r="I3" s="40">
+        <v>956</v>
+      </c>
+      <c r="J3" s="40">
+        <v>957</v>
+      </c>
+      <c r="K3" s="40">
+        <v>956</v>
+      </c>
+      <c r="L3" s="40">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="40">
+        <v>878</v>
+      </c>
+      <c r="D4" s="40">
+        <v>905</v>
+      </c>
+      <c r="E4" s="40">
+        <v>925</v>
+      </c>
+      <c r="F4" s="40">
+        <v>946</v>
+      </c>
+      <c r="G4" s="40">
+        <v>974</v>
+      </c>
+      <c r="H4" s="40">
+        <v>967</v>
+      </c>
+      <c r="I4" s="40">
+        <v>925</v>
+      </c>
+      <c r="J4" s="40">
+        <v>908</v>
+      </c>
+      <c r="K4" s="40">
+        <v>925</v>
+      </c>
+      <c r="L4" s="40">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70">
+        <v>2033</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="40">
+        <v>820</v>
+      </c>
+      <c r="D5" s="40">
+        <v>875</v>
+      </c>
+      <c r="E5" s="40">
+        <v>913</v>
+      </c>
+      <c r="F5" s="40">
+        <v>951</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1008</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1034</v>
+      </c>
+      <c r="I5" s="40">
+        <v>913</v>
+      </c>
+      <c r="J5" s="40">
+        <v>864</v>
+      </c>
+      <c r="K5" s="40">
+        <v>896</v>
+      </c>
+      <c r="L5" s="40">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70">
+        <v>2038</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="40">
+        <v>766</v>
+      </c>
+      <c r="D6" s="40">
+        <v>849</v>
+      </c>
+      <c r="E6" s="40">
+        <v>911</v>
+      </c>
+      <c r="F6" s="40">
+        <v>969</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1055</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1135</v>
+      </c>
+      <c r="I6" s="40">
+        <v>912</v>
+      </c>
+      <c r="J6" s="40">
+        <v>824</v>
+      </c>
+      <c r="K6" s="40">
+        <v>909</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70">
+        <v>2043</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="40">
+        <v>734</v>
+      </c>
+      <c r="D7" s="40">
+        <v>840</v>
+      </c>
+      <c r="E7" s="40">
+        <v>919</v>
+      </c>
+      <c r="F7" s="40">
+        <v>992</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1109</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1221</v>
+      </c>
+      <c r="I7" s="40">
+        <v>920</v>
+      </c>
+      <c r="J7" s="40">
+        <v>794</v>
+      </c>
+      <c r="K7" s="40">
+        <v>901</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="40">
+        <v>707</v>
+      </c>
+      <c r="D8" s="40">
+        <v>840</v>
+      </c>
+      <c r="E8" s="40">
+        <v>931</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1025</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1162</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1278</v>
+      </c>
+      <c r="I8" s="40">
+        <v>932</v>
+      </c>
+      <c r="J8" s="40">
+        <v>776</v>
+      </c>
+      <c r="K8" s="40">
+        <v>930</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70">
+        <v>2053</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="40">
+        <v>681</v>
+      </c>
+      <c r="D9" s="40">
+        <v>833</v>
+      </c>
+      <c r="E9" s="40">
+        <v>937</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1048</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1208</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1314</v>
+      </c>
+      <c r="I9" s="40">
+        <v>939</v>
+      </c>
+      <c r="J9" s="40">
+        <v>759</v>
+      </c>
+      <c r="K9" s="40">
+        <v>923</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70">
+        <v>2058</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="40">
+        <v>649</v>
+      </c>
+      <c r="D10" s="40">
+        <v>822</v>
+      </c>
+      <c r="E10" s="40">
+        <v>934</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1055</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1250</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1347</v>
+      </c>
+      <c r="I10" s="40">
+        <v>936</v>
+      </c>
+      <c r="J10" s="40">
+        <v>734</v>
+      </c>
+      <c r="K10" s="40">
+        <v>935</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70">
+        <v>2063</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="40">
+        <v>615</v>
+      </c>
+      <c r="D11" s="40">
+        <v>794</v>
+      </c>
+      <c r="E11" s="40">
+        <v>926</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1063</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1290</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1402</v>
+      </c>
+      <c r="I11" s="40">
+        <v>928</v>
+      </c>
+      <c r="J11" s="40">
+        <v>702</v>
+      </c>
+      <c r="K11" s="40">
+        <v>912</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70">
+        <v>2068</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="40">
+        <v>571</v>
+      </c>
+      <c r="D12" s="40">
+        <v>770</v>
+      </c>
+      <c r="E12" s="40">
+        <v>922</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1080</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1349</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1484</v>
+      </c>
+      <c r="I12" s="40">
+        <v>924</v>
+      </c>
+      <c r="J12" s="40">
+        <v>671</v>
+      </c>
+      <c r="K12" s="40">
+        <v>922</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="40">
+        <v>531</v>
+      </c>
+      <c r="D13" s="40">
+        <v>753</v>
+      </c>
+      <c r="E13" s="40">
+        <v>924</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1099</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1403</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1573</v>
+      </c>
+      <c r="I13" s="40">
+        <v>927</v>
+      </c>
+      <c r="J13" s="40">
+        <v>646</v>
+      </c>
+      <c r="K13" s="40">
+        <v>909</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC3E818-9FF2-4658-A040-5A4CE51E1C56}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="70">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="40">
+        <v>1584</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1590</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1593</v>
+      </c>
+      <c r="F3" s="40">
+        <v>1598</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1603</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1593</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1594</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1596</v>
+      </c>
+      <c r="K3" s="40">
+        <v>1593</v>
+      </c>
+      <c r="L3" s="40">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="40">
+        <v>1589</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1612</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1628</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1644</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1667</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1628</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1629</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1619</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1628</v>
+      </c>
+      <c r="L4" s="40">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70">
+        <v>2033</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="40">
+        <v>1651</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1688</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1716</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1742</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1782</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1716</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1719</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1676</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1699</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70">
+        <v>2038</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="40">
+        <v>1679</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1732</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1771</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1813</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1872</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1771</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1776</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1680</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1766</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70">
+        <v>2043</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="40">
+        <v>1712</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1789</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1843</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1900</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1983</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1843</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1851</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1688</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1818</v>
+      </c>
+      <c r="L7" s="40">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="40">
+        <v>1756</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1851</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1919</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1990</v>
+      </c>
+      <c r="G8" s="40">
+        <v>2092</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1919</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1930</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1685</v>
+      </c>
+      <c r="K8" s="40">
+        <v>1905</v>
+      </c>
+      <c r="L8" s="40">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70">
+        <v>2053</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="40">
+        <v>1796</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1908</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1987</v>
+      </c>
+      <c r="F9" s="40">
+        <v>2068</v>
+      </c>
+      <c r="G9" s="40">
+        <v>2182</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1987</v>
+      </c>
+      <c r="I9" s="40">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1668</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1957</v>
+      </c>
+      <c r="L9" s="40">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70">
+        <v>2058</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="40">
+        <v>1782</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1907</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1993</v>
+      </c>
+      <c r="F10" s="40">
+        <v>2084</v>
+      </c>
+      <c r="G10" s="40">
+        <v>2216</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1993</v>
+      </c>
+      <c r="I10" s="40">
+        <v>2008</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1601</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1980</v>
+      </c>
+      <c r="L10" s="40">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70">
+        <v>2063</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="40">
+        <v>1787</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1919</v>
+      </c>
+      <c r="E11" s="40">
+        <v>2011</v>
+      </c>
+      <c r="F11" s="40">
+        <v>2109</v>
+      </c>
+      <c r="G11" s="40">
+        <v>2254</v>
+      </c>
+      <c r="H11" s="40">
+        <v>2013</v>
+      </c>
+      <c r="I11" s="40">
+        <v>2028</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1559</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1984</v>
+      </c>
+      <c r="L11" s="40">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70">
+        <v>2068</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="40">
+        <v>1804</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1940</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2039</v>
+      </c>
+      <c r="F12" s="40">
+        <v>2142</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2291</v>
+      </c>
+      <c r="H12" s="40">
+        <v>2081</v>
+      </c>
+      <c r="I12" s="40">
+        <v>2058</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1530</v>
+      </c>
+      <c r="K12" s="40">
+        <v>2031</v>
+      </c>
+      <c r="L12" s="40">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="40">
+        <v>1799</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1938</v>
+      </c>
+      <c r="E13" s="40">
+        <v>2045</v>
+      </c>
+      <c r="F13" s="40">
+        <v>2152</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2319</v>
+      </c>
+      <c r="H13" s="40">
+        <v>2165</v>
+      </c>
+      <c r="I13" s="40">
+        <v>2066</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1482</v>
+      </c>
+      <c r="K13" s="40">
+        <v>2024</v>
+      </c>
+      <c r="L13" s="40">
+        <v>2585</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2903CBAC-DC17-471F-887B-D3F65F8B352D}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="70">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="40">
+        <v>1707</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1722</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1732</v>
+      </c>
+      <c r="F3" s="40">
+        <v>1742</v>
+      </c>
+      <c r="G3" s="40">
+        <v>1756</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1732</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1732</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1730</v>
+      </c>
+      <c r="K3" s="40">
+        <v>1732</v>
+      </c>
+      <c r="L3" s="40">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="40">
+        <v>1682</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1740</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1781</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1822</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1884</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1781</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1781</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1710</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1781</v>
+      </c>
+      <c r="L4" s="40">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70">
+        <v>2033</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="40">
+        <v>1644</v>
+      </c>
+      <c r="D5" s="40">
+        <v>1723</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1783</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1841</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1926</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1783</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1784</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1637</v>
+      </c>
+      <c r="K5" s="40">
+        <v>1740</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70">
+        <v>2038</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="40">
+        <v>1638</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1730</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1798</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1866</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1969</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1800</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1799</v>
+      </c>
+      <c r="J6" s="40">
+        <v>1592</v>
+      </c>
+      <c r="K6" s="40">
+        <v>1800</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70">
+        <v>2043</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="40">
+        <v>1650</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1751</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1824</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1903</v>
+      </c>
+      <c r="G7" s="40">
+        <v>2012</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1866</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1826</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1559</v>
+      </c>
+      <c r="K7" s="40">
+        <v>1786</v>
+      </c>
+      <c r="L7" s="40">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="40">
+        <v>1628</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1748</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1828</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1913</v>
+      </c>
+      <c r="G8" s="40">
+        <v>2036</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1949</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1831</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1510</v>
+      </c>
+      <c r="K8" s="40">
+        <v>1837</v>
+      </c>
+      <c r="L8" s="40">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70">
+        <v>2053</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="40">
+        <v>1575</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1708</v>
+      </c>
+      <c r="E9" s="40">
+        <v>1805</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1904</v>
+      </c>
+      <c r="G9" s="40">
+        <v>2045</v>
+      </c>
+      <c r="H9" s="40">
+        <v>2030</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1808</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1435</v>
+      </c>
+      <c r="K9" s="40">
+        <v>1768</v>
+      </c>
+      <c r="L9" s="40">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70">
+        <v>2058</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="40">
+        <v>1537</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1682</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1802</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1919</v>
+      </c>
+      <c r="G10" s="40">
+        <v>2097</v>
+      </c>
+      <c r="H10" s="40">
+        <v>2145</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1806</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1377</v>
+      </c>
+      <c r="K10" s="40">
+        <v>1808</v>
+      </c>
+      <c r="L10" s="40">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70">
+        <v>2063</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="40">
+        <v>1478</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1670</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1811</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1947</v>
+      </c>
+      <c r="G11" s="40">
+        <v>2174</v>
+      </c>
+      <c r="H11" s="40">
+        <v>2276</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1816</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1331</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1774</v>
+      </c>
+      <c r="L11" s="40">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70">
+        <v>2068</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="40">
+        <v>1433</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1657</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1819</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1984</v>
+      </c>
+      <c r="G12" s="40">
+        <v>2248</v>
+      </c>
+      <c r="H12" s="40">
+        <v>2377</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1825</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1288</v>
+      </c>
+      <c r="K12" s="40">
+        <v>1827</v>
+      </c>
+      <c r="L12" s="40">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="40">
+        <v>1375</v>
+      </c>
+      <c r="D13" s="40">
+        <v>1643</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1824</v>
+      </c>
+      <c r="F13" s="40">
+        <v>2014</v>
+      </c>
+      <c r="G13" s="40">
+        <v>2316</v>
+      </c>
+      <c r="H13" s="40">
+        <v>2458</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1831</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1250</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1790</v>
+      </c>
+      <c r="L13" s="40">
+        <v>2359</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334D65A8-3D0E-44B4-919E-B5A3E86C5420}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="70">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="40">
+        <v>946</v>
+      </c>
+      <c r="D3" s="40">
+        <v>952</v>
+      </c>
+      <c r="E3" s="40">
+        <v>956</v>
+      </c>
+      <c r="F3" s="40">
+        <v>960</v>
+      </c>
+      <c r="G3" s="40">
+        <v>965</v>
+      </c>
+      <c r="H3" s="40">
+        <v>958</v>
+      </c>
+      <c r="I3" s="40">
+        <v>956</v>
+      </c>
+      <c r="J3" s="40">
+        <v>957</v>
+      </c>
+      <c r="K3" s="40">
+        <v>956</v>
+      </c>
+      <c r="L3" s="40">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="70">
+        <v>2028</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="40">
+        <v>878</v>
+      </c>
+      <c r="D4" s="40">
+        <v>905</v>
+      </c>
+      <c r="E4" s="40">
+        <v>925</v>
+      </c>
+      <c r="F4" s="40">
+        <v>946</v>
+      </c>
+      <c r="G4" s="40">
+        <v>974</v>
+      </c>
+      <c r="H4" s="40">
+        <v>967</v>
+      </c>
+      <c r="I4" s="40">
+        <v>925</v>
+      </c>
+      <c r="J4" s="40">
+        <v>908</v>
+      </c>
+      <c r="K4" s="40">
+        <v>925</v>
+      </c>
+      <c r="L4" s="40">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="70">
+        <v>2033</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="40">
+        <v>820</v>
+      </c>
+      <c r="D5" s="40">
+        <v>875</v>
+      </c>
+      <c r="E5" s="40">
+        <v>913</v>
+      </c>
+      <c r="F5" s="40">
+        <v>951</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1008</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1034</v>
+      </c>
+      <c r="I5" s="40">
+        <v>913</v>
+      </c>
+      <c r="J5" s="40">
+        <v>864</v>
+      </c>
+      <c r="K5" s="40">
+        <v>896</v>
+      </c>
+      <c r="L5" s="40">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="70">
+        <v>2038</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="40">
+        <v>766</v>
+      </c>
+      <c r="D6" s="40">
+        <v>849</v>
+      </c>
+      <c r="E6" s="40">
+        <v>911</v>
+      </c>
+      <c r="F6" s="40">
+        <v>969</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1055</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1135</v>
+      </c>
+      <c r="I6" s="40">
+        <v>912</v>
+      </c>
+      <c r="J6" s="40">
+        <v>824</v>
+      </c>
+      <c r="K6" s="40">
+        <v>909</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="70">
+        <v>2043</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="40">
+        <v>734</v>
+      </c>
+      <c r="D7" s="40">
+        <v>840</v>
+      </c>
+      <c r="E7" s="40">
+        <v>919</v>
+      </c>
+      <c r="F7" s="40">
+        <v>992</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1109</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1221</v>
+      </c>
+      <c r="I7" s="40">
+        <v>920</v>
+      </c>
+      <c r="J7" s="40">
+        <v>794</v>
+      </c>
+      <c r="K7" s="40">
+        <v>901</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="70">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="40">
+        <v>707</v>
+      </c>
+      <c r="D8" s="40">
+        <v>840</v>
+      </c>
+      <c r="E8" s="40">
+        <v>931</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1025</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1162</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1278</v>
+      </c>
+      <c r="I8" s="40">
+        <v>932</v>
+      </c>
+      <c r="J8" s="40">
+        <v>776</v>
+      </c>
+      <c r="K8" s="40">
+        <v>930</v>
+      </c>
+      <c r="L8" s="40">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="70">
+        <v>2053</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="40">
+        <v>681</v>
+      </c>
+      <c r="D9" s="40">
+        <v>833</v>
+      </c>
+      <c r="E9" s="40">
+        <v>937</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1048</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1208</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1314</v>
+      </c>
+      <c r="I9" s="40">
+        <v>939</v>
+      </c>
+      <c r="J9" s="40">
+        <v>759</v>
+      </c>
+      <c r="K9" s="40">
+        <v>923</v>
+      </c>
+      <c r="L9" s="40">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="70">
+        <v>2058</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="40">
+        <v>649</v>
+      </c>
+      <c r="D10" s="40">
+        <v>822</v>
+      </c>
+      <c r="E10" s="40">
+        <v>934</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1055</v>
+      </c>
+      <c r="G10" s="40">
+        <v>1250</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1347</v>
+      </c>
+      <c r="I10" s="40">
+        <v>936</v>
+      </c>
+      <c r="J10" s="40">
+        <v>734</v>
+      </c>
+      <c r="K10" s="40">
+        <v>935</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="70">
+        <v>2063</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="40">
+        <v>615</v>
+      </c>
+      <c r="D11" s="40">
+        <v>794</v>
+      </c>
+      <c r="E11" s="40">
+        <v>926</v>
+      </c>
+      <c r="F11" s="40">
+        <v>1063</v>
+      </c>
+      <c r="G11" s="40">
+        <v>1290</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1402</v>
+      </c>
+      <c r="I11" s="40">
+        <v>928</v>
+      </c>
+      <c r="J11" s="40">
+        <v>702</v>
+      </c>
+      <c r="K11" s="40">
+        <v>912</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="70">
+        <v>2068</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="40">
+        <v>571</v>
+      </c>
+      <c r="D12" s="40">
+        <v>770</v>
+      </c>
+      <c r="E12" s="40">
+        <v>922</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1080</v>
+      </c>
+      <c r="G12" s="40">
+        <v>1349</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1484</v>
+      </c>
+      <c r="I12" s="40">
+        <v>924</v>
+      </c>
+      <c r="J12" s="40">
+        <v>671</v>
+      </c>
+      <c r="K12" s="40">
+        <v>922</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="70">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="40">
+        <v>531</v>
+      </c>
+      <c r="D13" s="40">
+        <v>753</v>
+      </c>
+      <c r="E13" s="40">
+        <v>924</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1099</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1403</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1573</v>
+      </c>
+      <c r="I13" s="40">
+        <v>927</v>
+      </c>
+      <c r="J13" s="40">
+        <v>646</v>
+      </c>
+      <c r="K13" s="40">
+        <v>909</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <C3FinancialYearNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </C3FinancialYearNote>
+    <h46a36d1fcc44c9f84f65dc0772a3757 xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h46a36d1fcc44c9f84f65dc0772a3757>
+    <e8bac518797247d9a4e915b8746d6853 xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Private In-confidence</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6e16c19f-69d3-47e1-8f93-9832b606c650</TermId>
+        </TermInfo>
+      </Terms>
+    </e8bac518797247d9a4e915b8746d6853>
+    <_dlc_DocId xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">ENXFE5XUT2PX-1406382270-36694</_dlc_DocId>
+    <TaxCatchAll xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
+      <Value>3</Value>
+    </TaxCatchAll>
+    <_dlc_DocIdUrl xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
+      <Url>https://stats.cohesion.net.nz/Sites/CR/CRPRS/PUB/_layouts/15/DocIdRedir.aspx?ID=ENXFE5XUT2PX-1406382270-36694</Url>
+      <Description>ENXFE5XUT2PX-1406382270-36694</Description>
+    </_dlc_DocIdUrl>
+    <TaxKeywordTaxHTField xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <C3TopicNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </C3TopicNote>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Excel Spreadsheet" ma:contentTypeID="0x0101005496552013C0BA46BE88192D5C6EB20B009CDED344C2374474AE96CC935068FE7100A52BC38D06475646BBDF5A6198C258FA" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new Excel Spreadsheet" ma:contentTypeScope="" ma:versionID="3c167f577553296a7f834a4f4c9c805f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="01be4277-2979-4a68-876d-b92b25fceece" xmlns:ns4="931debb3-2ef8-4f70-9e1c-e7f35321f1b8" xmlns:ns5="8125fb2f-0af6-4929-85bb-669986b93a81" xmlns:ns6="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aacc2aef97fb802b9bab72503881838" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="01be4277-2979-4a68-876d-b92b25fceece"/>
@@ -13461,60 +15827,84 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <C3FinancialYearNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </C3FinancialYearNote>
-    <h46a36d1fcc44c9f84f65dc0772a3757 xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h46a36d1fcc44c9f84f65dc0772a3757>
-    <e8bac518797247d9a4e915b8746d6853 xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Private In-confidence</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6e16c19f-69d3-47e1-8f93-9832b606c650</TermId>
-        </TermInfo>
-      </Terms>
-    </e8bac518797247d9a4e915b8746d6853>
-    <_dlc_DocId xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">ENXFE5XUT2PX-1406382270-36694</_dlc_DocId>
-    <TaxCatchAll xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
-      <Value>3</Value>
-    </TaxCatchAll>
-    <_dlc_DocIdUrl xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
-      <Url>https://stats.cohesion.net.nz/Sites/CR/CRPRS/PUB/_layouts/15/DocIdRedir.aspx?ID=ENXFE5XUT2PX-1406382270-36694</Url>
-      <Description>ENXFE5XUT2PX-1406382270-36694</Description>
-    </_dlc_DocIdUrl>
-    <TaxKeywordTaxHTField xmlns="931debb3-2ef8-4f70-9e1c-e7f35321f1b8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <C3TopicNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </C3TopicNote>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEE5944-A9E3-44DB-8906-ED4B5AB57264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8BC62B-3CC9-4BE9-9EF8-5541F6649F1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D058FD9F-C15A-4C18-B36E-B71B7F8E3B5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="931debb3-2ef8-4f70-9e1c-e7f35321f1b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8125fb2f-0af6-4929-85bb-669986b93a81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="01be4277-2979-4a68-876d-b92b25fceece"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3E2D2F0-C3D1-42BD-99A9-103C7F6358B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13535,29 +15925,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D058FD9F-C15A-4C18-B36E-B71B7F8E3B5D}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEE5944-A9E3-44DB-8906-ED4B5AB57264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="931debb3-2ef8-4f70-9e1c-e7f35321f1b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8125fb2f-0af6-4929-85bb-669986b93a81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="01be4277-2979-4a68-876d-b92b25fceece"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8BC62B-3CC9-4BE9-9EF8-5541F6649F1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>